--- a/Output/Output Files/Characterization 110919-635.xlsx
+++ b/Output/Output Files/Characterization 110919-635.xlsx
@@ -1,32 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="20496" windowHeight="8340" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8340" windowWidth="20496" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2360-190602 " sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Map " sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Map (2)" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Map (3)" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Map (4)" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Map (5)" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Map (6)" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="2360-190602 " sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Map " sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Map (2)" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Map (3)" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Map (4)" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Map (5)" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Map (6)" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_2360" localSheetId="0">#REF!</definedName>
-    <definedName name="_2360" localSheetId="5">#REF!</definedName>
-    <definedName name="_2360" localSheetId="6">#REF!</definedName>
+    <definedName localSheetId="0" name="_2360">#REF!</definedName>
+    <definedName localSheetId="5" name="_2360">#REF!</definedName>
+    <definedName localSheetId="6" name="_2360">#REF!</definedName>
     <definedName name="_2360">#REF!</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'2360-190602 '!$1:$17</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'2360-190602 '!$A$1:$S$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Map '!$A$1:$BY$45</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'Map (2)'!$A$1:$BY$45</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'Map (3)'!$A$1:$BY$45</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'Map (4)'!$A$1:$BY$45</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'Map (5)'!$A$1:$BY$45</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'Map (6)'!$A$1:$BY$45</definedName>
+    <definedName localSheetId="0" name="_xlnm.Print_Titles">'2360-190602 '!$1:$17</definedName>
+    <definedName localSheetId="0" name="_xlnm.Print_Area">'2360-190602 '!$A$1:$S$39</definedName>
+    <definedName localSheetId="1" name="_xlnm.Print_Area">'Map '!$A$1:$BY$45</definedName>
+    <definedName localSheetId="2" name="_xlnm.Print_Area">'Map (2)'!$A$1:$BY$45</definedName>
+    <definedName localSheetId="3" name="_xlnm.Print_Area">'Map (3)'!$A$1:$BY$45</definedName>
+    <definedName localSheetId="4" name="_xlnm.Print_Area">'Map (4)'!$A$1:$BY$45</definedName>
+    <definedName localSheetId="5" name="_xlnm.Print_Area">'Map (5)'!$A$1:$BY$45</definedName>
+    <definedName localSheetId="6" name="_xlnm.Print_Area">'Map (6)'!$A$1:$BY$45</definedName>
   </definedNames>
   <calcPr calcId="152511" fullCalcOnLoad="1"/>
 </workbook>
@@ -35,8 +35,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode=";;;"/>
-    <numFmt numFmtId="165" formatCode="m/d/yyyy;@"/>
+    <numFmt formatCode=";;;" numFmtId="164"/>
+    <numFmt formatCode="m/d/yyyy;@" numFmtId="165"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1389,641 +1389,641 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="225">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="22" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="47" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="44" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="44" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="47" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="47" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="44" fillId="0" fontId="12" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="52" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="52" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="57" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="57" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="54" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="54" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="58" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="58" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="59" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="59" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="55" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="55" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="56" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="56" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="16" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="17" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="16" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="22" fillId="3" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="23" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="23" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="24" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="27" fillId="3" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="23" fillId="3" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="24" fillId="3" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="26" fillId="3" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="26" fillId="3" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="28" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="16" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="29" fillId="3" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="30" fillId="3" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="30" fillId="3" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="31" fillId="3" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="33" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="31" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="34" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="34" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="32" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="35" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="35" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="36" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="36" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="30" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="37" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="37" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="38" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="14" fillId="3" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="39" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="39" fillId="3" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="44" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="38" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="23" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="23" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="14" fillId="3" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="11" fillId="3" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="12" fillId="3" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="12" fillId="3" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="13" fillId="3" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="48" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="48" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="49" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="49" fillId="5" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="48" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="48" fillId="5" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="16" fillId="3" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="14" fillId="3" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="14" fillId="3" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="49" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="49" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="14" fillId="3" fontId="14" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="38" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="9" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="42" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="14" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="47" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="47" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="62" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="62" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="63" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="63" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="64" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="64" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="61" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" applyProtection="1" borderId="61" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="65" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="65" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="16" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="68" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="68" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="74" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="74" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="75" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="75" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="13" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="10" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="10" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="22" fillId="0" fontId="19" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="23" fillId="0" fontId="19" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="28" fillId="0" fontId="19" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="44" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="44" fillId="0" fontId="19" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="76" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="76" fillId="0" fontId="19" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="76" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf borderId="76" fillId="0" fontId="18" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="44" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="76" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf borderId="44" fillId="0" fontId="18" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="18" fillId="0" fontId="18" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="1" fillId="0" fontId="18" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="21" fillId="0" fontId="18" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="23" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="28" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="76" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="21" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="21" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="23" fillId="0" fontId="17" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="44" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="23" fillId="0" fontId="18" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="1" fillId="0" fontId="21" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="21" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="44" fillId="0" fontId="17" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="41" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="41" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="42" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="42" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="2" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="42" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="42" fillId="2" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="42" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="42" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="48" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="48" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="60" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="60" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="48" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="48" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="49" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="49" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="61" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="61" fillId="2" fontId="15" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="66" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="66" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="67" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="67" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="39" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="39" fillId="2" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="70" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="70" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="45" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="72" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="72" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="51" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="51" fillId="2" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="73" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="73" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="19" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="19" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="40" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="40" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="2" fontId="3" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="69" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="69" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="39" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf borderId="14" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="39" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf borderId="39" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="23" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="17" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="17" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="71" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" applyProtection="1" borderId="71" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="51" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf borderId="50" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="51" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="81" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf borderId="51" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="81" fillId="3" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="42" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="82" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="82" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="80" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="53" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="54" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="80" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="83" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="83" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="84" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="10" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="84" fillId="3" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="72" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="72" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="85" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="85" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="46" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="42" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="83" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="83" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="42" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" applyProtection="1" borderId="42" fillId="2" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="83" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="83" fillId="2" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="42" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="83" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="83" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="42" fillId="0" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="42" fillId="0" fontId="3" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="42" fillId="3" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="83" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="83" fillId="3" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="42" fillId="0" fontId="3" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="49" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="49" fillId="0" fontId="3" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="78" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="10" fontId="3" fillId="3" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="78" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="42" fillId="3" fontId="3" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="3" borderId="83" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="83" fillId="3" fontId="3" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="41" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="86" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="43" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="86" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="85" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="79" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="85" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="87" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="87" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="83" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="77" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="83" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="88" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="88" fillId="3" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="83" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="26" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="25" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="83" fillId="2" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="41" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="89" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="89" fillId="2" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="90" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="90" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="89" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" applyProtection="1" borderId="89" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="84" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="84" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="85" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="12" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="13" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="18" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="19" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="85" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="81" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf borderId="15" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="20" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="21" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="81" fillId="0" fontId="22" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="83" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="83" fillId="2" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="84" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="84" fillId="0" fontId="22" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="85" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="85" fillId="2" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="83" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="83" fillId="2" fontId="4" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="90" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="90" fillId="0" fontId="22" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="89" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="89" fillId="2" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
+      <protection hidden="0" locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -2362,26 +2362,26 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BC49"/>
+  <dimension ref="A1:BC39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="V21" sqref="V21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
-    <col width="3.44140625" customWidth="1" style="153" min="1" max="1"/>
-    <col width="10.44140625" customWidth="1" style="153" min="2" max="3"/>
-    <col width="18.33203125" customWidth="1" style="153" min="4" max="4"/>
-    <col width="5.33203125" customWidth="1" style="153" min="5" max="5"/>
-    <col width="2.5546875" customWidth="1" style="153" min="6" max="7"/>
-    <col width="5.33203125" customWidth="1" style="153" min="8" max="8"/>
-    <col width="7.44140625" customWidth="1" style="153" min="9" max="19"/>
-    <col width="9.109375" customWidth="1" style="153" min="20" max="20"/>
-    <col width="9.109375" customWidth="1" style="153" min="21" max="16384"/>
+    <col customWidth="1" max="1" min="1" style="153" width="3.44140625"/>
+    <col customWidth="1" max="3" min="2" style="153" width="10.44140625"/>
+    <col customWidth="1" max="4" min="4" style="153" width="18.33203125"/>
+    <col customWidth="1" max="5" min="5" style="153" width="5.33203125"/>
+    <col customWidth="1" max="7" min="6" style="153" width="2.5546875"/>
+    <col customWidth="1" max="8" min="8" style="153" width="5.33203125"/>
+    <col customWidth="1" max="19" min="9" style="153" width="7.44140625"/>
+    <col customWidth="1" max="20" min="20" style="153" width="9.109375"/>
+    <col customWidth="1" max="16384" min="21" style="153" width="9.109375"/>
   </cols>
   <sheetData>
-    <row r="1" ht="39" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="39" r="1" thickBot="1">
       <c r="A1" s="202" t="n"/>
       <c r="B1" s="203" t="n"/>
       <c r="C1" s="203" t="n"/>
@@ -2402,7 +2402,7 @@
       <c r="R1" s="203" t="n"/>
       <c r="S1" s="203" t="n"/>
     </row>
-    <row r="2" ht="13.5" customHeight="1" thickTop="1">
+    <row customHeight="1" ht="13.5" r="2" thickTop="1">
       <c r="A2" s="14" t="n"/>
       <c r="B2" s="15" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
       <c r="R2" s="165" t="n"/>
       <c r="S2" s="205" t="n"/>
     </row>
-    <row r="3" ht="13.5" customHeight="1">
+    <row customHeight="1" ht="13.5" r="3">
       <c r="A3" s="16" t="n"/>
       <c r="B3" s="17" t="inlineStr">
         <is>
@@ -2470,7 +2470,7 @@
       <c r="R3" s="209" t="n"/>
       <c r="S3" s="214" t="n"/>
     </row>
-    <row r="4" ht="13.5" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="13.5" r="4" thickBot="1">
       <c r="A4" s="18" t="n"/>
       <c r="B4" s="19" t="inlineStr">
         <is>
@@ -2499,7 +2499,7 @@
       <c r="R4" s="203" t="n"/>
       <c r="S4" s="216" t="n"/>
     </row>
-    <row r="5" ht="13.5" customHeight="1" thickTop="1">
+    <row customHeight="1" ht="13.5" r="5" thickTop="1">
       <c r="A5" s="20" t="n"/>
       <c r="B5" s="19" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" ht="13.5" customHeight="1">
+    <row customHeight="1" ht="13.5" r="6">
       <c r="A6" s="32" t="n"/>
       <c r="B6" s="33" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" ht="13.5" customHeight="1">
+    <row customHeight="1" ht="13.5" r="7">
       <c r="A7" s="46" t="n"/>
       <c r="B7" s="19" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" ht="13.5" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="13.5" r="8" thickBot="1">
       <c r="A8" s="51" t="n"/>
       <c r="B8" s="19" t="inlineStr">
         <is>
@@ -2705,7 +2705,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" ht="13.5" customHeight="1" thickTop="1">
+    <row customHeight="1" ht="13.5" r="9" thickTop="1">
       <c r="A9" s="1" t="inlineStr">
         <is>
           <t>Notes</t>
@@ -2752,7 +2752,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" ht="13.5" customHeight="1">
+    <row customHeight="1" ht="13.5" r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">   PCF = Probe Correction Factor</t>
@@ -2797,7 +2797,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" ht="13.5" customHeight="1">
+    <row customHeight="1" ht="13.5" r="11">
       <c r="A11" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">   Tb = Background count time</t>
@@ -2842,7 +2842,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" ht="13.5" customHeight="1">
+    <row customHeight="1" ht="13.5" r="12">
       <c r="A12" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">   Ts = Sample count time</t>
@@ -2888,7 +2888,7 @@
         </is>
       </c>
     </row>
-    <row r="13" ht="13.5" customHeight="1">
+    <row customHeight="1" ht="13.5" r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">   Rb = Background count rate</t>
@@ -2933,7 +2933,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" ht="13.5" customHeight="1">
+    <row customHeight="1" ht="13.5" r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">   Bcpm = Background cpm </t>
@@ -2973,7 +2973,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" ht="13.5" customHeight="1">
+    <row customHeight="1" ht="13.5" r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">   MDCR = Minimum Detectable Count Rate (net cpm)</t>
@@ -3017,7 +3017,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" ht="13.5" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="13.5" r="16" thickBot="1">
       <c r="A16" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">   MDC = Minimum Detectable Concentration (dpm per 100cm2)</t>
@@ -3059,7 +3059,7 @@
       <c r="S16" s="173" t="n"/>
       <c r="V16" s="31" t="n"/>
     </row>
-    <row r="17" ht="24" customHeight="1" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="24" r="17" thickBot="1" thickTop="1">
       <c r="A17" s="6" t="inlineStr">
         <is>
           <t>No.</t>
@@ -3132,7 +3132,7 @@
         </is>
       </c>
     </row>
-    <row r="18" ht="15.6" customFormat="1" customHeight="1" s="81" thickTop="1">
+    <row customFormat="1" customHeight="1" ht="15.6" r="18" s="81" thickTop="1">
       <c r="A18" s="124" t="n">
         <v>1</v>
       </c>
@@ -3179,7 +3179,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" ht="15.6" customFormat="1" customHeight="1" s="81">
+    <row customFormat="1" customHeight="1" ht="15.6" r="19" s="81">
       <c r="A19" s="128" t="n">
         <v>2</v>
       </c>
@@ -3226,7 +3226,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" ht="15.6" customFormat="1" customHeight="1" s="81">
+    <row customFormat="1" customHeight="1" ht="15.6" r="20" s="81">
       <c r="A20" s="124" t="n">
         <v>3</v>
       </c>
@@ -3273,7 +3273,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" ht="15.6" customFormat="1" customHeight="1" s="81">
+    <row customFormat="1" customHeight="1" ht="15.6" r="21" s="81">
       <c r="A21" s="128" t="n">
         <v>4</v>
       </c>
@@ -3320,7 +3320,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" ht="15.6" customFormat="1" customHeight="1" s="81">
+    <row customFormat="1" customHeight="1" ht="15.6" r="22" s="81">
       <c r="A22" s="124" t="n">
         <v>5</v>
       </c>
@@ -3367,7 +3367,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" ht="15.6" customFormat="1" customHeight="1" s="81">
+    <row customFormat="1" customHeight="1" ht="15.6" r="23" s="81">
       <c r="A23" s="128" t="n">
         <v>6</v>
       </c>
@@ -3420,7 +3420,7 @@
       </c>
       <c r="Z23" s="151" t="n"/>
     </row>
-    <row r="24" ht="15.6" customFormat="1" customHeight="1" s="81">
+    <row customFormat="1" customHeight="1" ht="15.6" r="24" s="81">
       <c r="A24" s="124" t="n">
         <v>7</v>
       </c>
@@ -3467,7 +3467,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" ht="15.6" customFormat="1" customHeight="1" s="81">
+    <row customFormat="1" customHeight="1" ht="15.6" r="25" s="81">
       <c r="A25" s="128" t="n">
         <v>8</v>
       </c>
@@ -3514,7 +3514,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" ht="15.6" customFormat="1" customHeight="1" s="81">
+    <row customFormat="1" customHeight="1" ht="15.6" r="26" s="81">
       <c r="A26" s="124" t="n">
         <v>9</v>
       </c>
@@ -3561,7 +3561,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" ht="15.6" customFormat="1" customHeight="1" s="81">
+    <row customFormat="1" customHeight="1" ht="15.6" r="27" s="81">
       <c r="A27" s="128" t="n">
         <v>10</v>
       </c>
@@ -3608,7 +3608,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" ht="15.6" customFormat="1" customHeight="1" s="81">
+    <row customFormat="1" customHeight="1" ht="15.6" r="28" s="81">
       <c r="A28" s="124" t="n">
         <v>11</v>
       </c>
@@ -3655,7 +3655,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" ht="15.6" customFormat="1" customHeight="1" s="81">
+    <row customFormat="1" customHeight="1" ht="15.6" r="29" s="81">
       <c r="A29" s="128" t="n">
         <v>12</v>
       </c>
@@ -3707,7 +3707,7 @@
         </is>
       </c>
     </row>
-    <row r="30" ht="15.6" customFormat="1" customHeight="1" s="81">
+    <row customFormat="1" customHeight="1" ht="15.6" r="30" s="81">
       <c r="A30" s="124" t="n">
         <v>13</v>
       </c>
@@ -3754,7 +3754,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" ht="15.6" customFormat="1" customHeight="1" s="81">
+    <row customFormat="1" customHeight="1" ht="15.6" r="31" s="81">
       <c r="A31" s="128" t="n">
         <v>14</v>
       </c>
@@ -3801,7 +3801,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" ht="15.6" customFormat="1" customHeight="1" s="81">
+    <row customFormat="1" customHeight="1" ht="15.6" r="32" s="81">
       <c r="A32" s="124" t="n">
         <v>15</v>
       </c>
@@ -3848,7 +3848,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" ht="15.6" customFormat="1" customHeight="1" s="81">
+    <row customFormat="1" customHeight="1" ht="15.6" r="33" s="81">
       <c r="A33" s="128" t="n"/>
       <c r="B33" s="148" t="n"/>
       <c r="C33" s="149" t="n"/>
@@ -3881,7 +3881,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" ht="15.6" customFormat="1" customHeight="1" s="81">
+    <row customFormat="1" customHeight="1" ht="15.6" r="34" s="81">
       <c r="A34" s="124" t="n"/>
       <c r="B34" s="148" t="n"/>
       <c r="C34" s="149" t="n"/>
@@ -3914,7 +3914,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" ht="15.6" customFormat="1" customHeight="1" s="81">
+    <row customFormat="1" customHeight="1" ht="15.6" r="35" s="81">
       <c r="A35" s="128" t="n"/>
       <c r="B35" s="148" t="n"/>
       <c r="C35" s="149" t="n"/>
@@ -3947,7 +3947,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" ht="15.6" customFormat="1" customHeight="1" s="81">
+    <row customFormat="1" customHeight="1" ht="15.6" r="36" s="81">
       <c r="A36" s="124" t="n"/>
       <c r="B36" s="148" t="n"/>
       <c r="C36" s="149" t="n"/>
@@ -3980,7 +3980,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" ht="15.6" customFormat="1" customHeight="1" s="81" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="15.6" r="37" s="81" thickBot="1">
       <c r="A37" s="132" t="n"/>
       <c r="B37" s="155" t="n"/>
       <c r="C37" s="156" t="n"/>
@@ -4013,7 +4013,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" ht="15.75" customHeight="1" thickTop="1">
+    <row customHeight="1" ht="15.75" r="38" thickTop="1">
       <c r="A38" s="85" t="n"/>
       <c r="B38" s="85" t="n"/>
       <c r="C38" s="86" t="n"/>
@@ -4073,7 +4073,7 @@
       <c r="BB38" s="91" t="n"/>
       <c r="BC38" s="91" t="n"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="39">
       <c r="A39" s="152" t="n"/>
       <c r="O39" s="154" t="n"/>
       <c r="T39" s="91" t="n"/>
@@ -4113,16 +4113,6 @@
       <c r="BB39" s="91" t="n"/>
       <c r="BC39" s="91" t="n"/>
     </row>
-    <row r="40"/>
-    <row r="41"/>
-    <row r="42"/>
-    <row r="43"/>
-    <row r="44"/>
-    <row r="45"/>
-    <row r="46"/>
-    <row r="47"/>
-    <row r="48"/>
-    <row r="49"/>
   </sheetData>
   <mergeCells count="99">
     <mergeCell ref="Y23:Z23"/>
@@ -4226,8 +4216,8 @@
     <mergeCell ref="E34:H34"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.375" footer="0.1"/>
-  <pageSetup orientation="landscape" scale="97" fitToHeight="0"/>
+  <pageMargins bottom="0.25" footer="0.1" header="0.375" left="0.25" right="0.25" top="0.25"/>
+  <pageSetup fitToHeight="0" orientation="landscape" scale="97"/>
 </worksheet>
 </file>
 
@@ -4239,17 +4229,17 @@
   </sheetPr>
   <dimension ref="A1:DH52"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="1.6640625" defaultRowHeight="12" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="1.6640625" defaultRowHeight="12"/>
   <cols>
-    <col width="1.6640625" customWidth="1" style="140" min="1" max="1"/>
-    <col width="1.6640625" customWidth="1" style="140" min="2" max="16384"/>
+    <col customWidth="1" max="1" min="1" style="140" width="1.6640625"/>
+    <col customWidth="1" max="16384" min="2" style="140" width="1.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="38.25" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="38.25" r="1" thickBot="1">
       <c r="A1" s="222" t="n"/>
       <c r="B1" s="203" t="n"/>
       <c r="C1" s="203" t="n"/>
@@ -4328,7 +4318,7 @@
       <c r="BX1" s="203" t="n"/>
       <c r="BY1" s="203" t="n"/>
     </row>
-    <row r="2" ht="12" customHeight="1" thickTop="1">
+    <row customHeight="1" ht="12" r="2" thickTop="1">
       <c r="A2" s="92" t="n"/>
       <c r="B2" s="93" t="n"/>
       <c r="C2" s="93" t="n"/>
@@ -4407,7 +4397,7 @@
       <c r="BX2" s="93" t="n"/>
       <c r="BY2" s="94" t="n"/>
     </row>
-    <row r="3" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="3">
       <c r="A3" s="95" t="n"/>
       <c r="B3" s="137" t="n"/>
       <c r="C3" s="138" t="n"/>
@@ -4486,7 +4476,7 @@
       <c r="BX3" s="138" t="n"/>
       <c r="BY3" s="96" t="n"/>
     </row>
-    <row r="4" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="4">
       <c r="A4" s="95" t="n"/>
       <c r="B4" s="138" t="n"/>
       <c r="C4" s="138" t="n"/>
@@ -4565,7 +4555,7 @@
       <c r="BX4" s="138" t="n"/>
       <c r="BY4" s="96" t="n"/>
     </row>
-    <row r="5" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="5">
       <c r="A5" s="99" t="n"/>
       <c r="AW5" s="139" t="n"/>
       <c r="AX5" s="139" t="n"/>
@@ -4583,7 +4573,7 @@
       <c r="BJ5" s="139" t="n"/>
       <c r="BY5" s="97" t="n"/>
     </row>
-    <row r="6" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="6">
       <c r="A6" s="99" t="n"/>
       <c r="AW6" s="139" t="n"/>
       <c r="AX6" s="139" t="n"/>
@@ -4601,7 +4591,7 @@
       <c r="BJ6" s="139" t="n"/>
       <c r="BY6" s="97" t="n"/>
     </row>
-    <row r="7" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="7">
       <c r="A7" s="99" t="n"/>
       <c r="V7" s="139" t="n"/>
       <c r="W7" s="139" t="n"/>
@@ -4635,7 +4625,7 @@
       <c r="BJ7" s="141" t="n"/>
       <c r="BY7" s="97" t="n"/>
     </row>
-    <row r="8" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="8">
       <c r="A8" s="99" t="n"/>
       <c r="V8" s="139" t="n"/>
       <c r="W8" s="139" t="n"/>
@@ -4669,7 +4659,7 @@
       <c r="BJ8" s="141" t="n"/>
       <c r="BY8" s="97" t="n"/>
     </row>
-    <row r="9" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="9">
       <c r="A9" s="99" t="n"/>
       <c r="V9" s="141" t="n"/>
       <c r="W9" s="141" t="n"/>
@@ -4689,7 +4679,7 @@
       <c r="AK9" s="141" t="n"/>
       <c r="BY9" s="97" t="n"/>
     </row>
-    <row r="10" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="10">
       <c r="A10" s="99" t="n"/>
       <c r="V10" s="141" t="n"/>
       <c r="W10" s="141" t="n"/>
@@ -4709,7 +4699,7 @@
       <c r="AK10" s="141" t="n"/>
       <c r="BY10" s="97" t="n"/>
     </row>
-    <row r="11" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="11">
       <c r="A11" s="99" t="n"/>
       <c r="V11" s="141" t="n"/>
       <c r="W11" s="141" t="n"/>
@@ -4729,19 +4719,19 @@
       <c r="AK11" s="141" t="n"/>
       <c r="BY11" s="97" t="n"/>
     </row>
-    <row r="12" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="12">
       <c r="A12" s="99" t="n"/>
       <c r="BY12" s="97" t="n"/>
     </row>
-    <row r="13" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="13">
       <c r="A13" s="99" t="n"/>
       <c r="BY13" s="97" t="n"/>
     </row>
-    <row r="14" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="14">
       <c r="A14" s="99" t="n"/>
       <c r="BY14" s="97" t="n"/>
     </row>
-    <row r="15" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="15">
       <c r="A15" s="99" t="n"/>
       <c r="BY15" s="97" t="n"/>
       <c r="CP15" s="115" t="n"/>
@@ -4764,7 +4754,7 @@
       <c r="DG15" s="115" t="n"/>
       <c r="DH15" s="115" t="n"/>
     </row>
-    <row r="16" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="16">
       <c r="A16" s="99" t="n"/>
       <c r="BY16" s="97" t="n"/>
       <c r="CP16" s="115" t="n"/>
@@ -4787,7 +4777,7 @@
       <c r="DG16" s="115" t="n"/>
       <c r="DH16" s="115" t="n"/>
     </row>
-    <row r="17" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="17">
       <c r="A17" s="99" t="n"/>
       <c r="BY17" s="97" t="n"/>
       <c r="CP17" s="115" t="n"/>
@@ -4810,7 +4800,7 @@
       <c r="DG17" s="115" t="n"/>
       <c r="DH17" s="115" t="n"/>
     </row>
-    <row r="18" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="18">
       <c r="A18" s="99" t="n"/>
       <c r="BY18" s="97" t="n"/>
       <c r="CP18" s="115" t="n"/>
@@ -4833,7 +4823,7 @@
       <c r="DG18" s="115" t="n"/>
       <c r="DH18" s="115" t="n"/>
     </row>
-    <row r="19" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="19">
       <c r="A19" s="99" t="n"/>
       <c r="BY19" s="97" t="n"/>
       <c r="CP19" s="115" t="n"/>
@@ -4856,7 +4846,7 @@
       <c r="DG19" s="115" t="n"/>
       <c r="DH19" s="115" t="n"/>
     </row>
-    <row r="20" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="20">
       <c r="A20" s="99" t="n"/>
       <c r="BY20" s="97" t="n"/>
       <c r="CP20" s="115" t="n"/>
@@ -4879,7 +4869,7 @@
       <c r="DG20" s="115" t="n"/>
       <c r="DH20" s="115" t="n"/>
     </row>
-    <row r="21" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="21">
       <c r="A21" s="99" t="n"/>
       <c r="BY21" s="97" t="n"/>
       <c r="CP21" s="115" t="n"/>
@@ -4902,7 +4892,7 @@
       <c r="DG21" s="115" t="n"/>
       <c r="DH21" s="115" t="n"/>
     </row>
-    <row r="22" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="22">
       <c r="A22" s="99" t="n"/>
       <c r="BY22" s="97" t="n"/>
       <c r="CP22" s="115" t="n"/>
@@ -4925,7 +4915,7 @@
       <c r="DG22" s="115" t="n"/>
       <c r="DH22" s="115" t="n"/>
     </row>
-    <row r="23" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="23">
       <c r="A23" s="99" t="n"/>
       <c r="AL23" s="139" t="n"/>
       <c r="AM23" s="139" t="n"/>
@@ -4958,7 +4948,7 @@
       <c r="DG23" s="115" t="n"/>
       <c r="DH23" s="115" t="n"/>
     </row>
-    <row r="24" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="24">
       <c r="A24" s="99" t="n"/>
       <c r="J24" s="139" t="n"/>
       <c r="K24" s="139" t="n"/>
@@ -4986,7 +4976,7 @@
       <c r="AU24" s="139" t="n"/>
       <c r="BY24" s="97" t="n"/>
     </row>
-    <row r="25" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="25">
       <c r="A25" s="99" t="n"/>
       <c r="J25" s="139" t="n"/>
       <c r="K25" s="139" t="n"/>
@@ -5014,7 +5004,7 @@
       <c r="AU25" s="141" t="n"/>
       <c r="BY25" s="97" t="n"/>
     </row>
-    <row r="26" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="26">
       <c r="A26" s="99" t="n"/>
       <c r="BC26" s="139" t="n"/>
       <c r="BD26" s="139" t="n"/>
@@ -5032,7 +5022,7 @@
       <c r="BP26" s="139" t="n"/>
       <c r="BY26" s="97" t="n"/>
     </row>
-    <row r="27" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="27">
       <c r="A27" s="99" t="n"/>
       <c r="B27" s="115" t="n"/>
       <c r="C27" s="115" t="n"/>
@@ -5074,7 +5064,7 @@
       <c r="BP27" s="139" t="n"/>
       <c r="BY27" s="97" t="n"/>
     </row>
-    <row r="28" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="28">
       <c r="A28" s="99" t="n"/>
       <c r="B28" s="115" t="n"/>
       <c r="C28" s="115" t="n"/>
@@ -5116,7 +5106,7 @@
       <c r="BP28" s="139" t="n"/>
       <c r="BY28" s="97" t="n"/>
     </row>
-    <row r="29" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="29">
       <c r="A29" s="99" t="n"/>
       <c r="B29" s="115" t="n"/>
       <c r="C29" s="115" t="n"/>
@@ -5158,7 +5148,7 @@
       <c r="BP29" s="139" t="n"/>
       <c r="BY29" s="97" t="n"/>
     </row>
-    <row r="30" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="30">
       <c r="A30" s="99" t="n"/>
       <c r="B30" s="115" t="n"/>
       <c r="C30" s="115" t="n"/>
@@ -5200,7 +5190,7 @@
       <c r="BP30" s="141" t="n"/>
       <c r="BY30" s="97" t="n"/>
     </row>
-    <row r="31" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="31">
       <c r="A31" s="99" t="n"/>
       <c r="B31" s="115" t="n"/>
       <c r="C31" s="115" t="n"/>
@@ -5242,7 +5232,7 @@
       <c r="BP31" s="141" t="n"/>
       <c r="BY31" s="97" t="n"/>
     </row>
-    <row r="32" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="32">
       <c r="A32" s="99" t="n"/>
       <c r="B32" s="115" t="n"/>
       <c r="C32" s="115" t="n"/>
@@ -5270,7 +5260,7 @@
       <c r="Y32" s="142" t="n"/>
       <c r="BY32" s="97" t="n"/>
     </row>
-    <row r="33" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="33">
       <c r="A33" s="99" t="n"/>
       <c r="B33" s="115" t="n"/>
       <c r="C33" s="115" t="n"/>
@@ -5331,7 +5321,7 @@
       <c r="BS33" s="144" t="n"/>
       <c r="BY33" s="97" t="n"/>
     </row>
-    <row r="34" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="34">
       <c r="A34" s="99" t="n"/>
       <c r="B34" s="115" t="n"/>
       <c r="C34" s="115" t="n"/>
@@ -5392,7 +5382,7 @@
       <c r="BS34" s="144" t="n"/>
       <c r="BY34" s="97" t="n"/>
     </row>
-    <row r="35" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="35">
       <c r="A35" s="99" t="n"/>
       <c r="B35" s="115" t="n"/>
       <c r="C35" s="115" t="n"/>
@@ -5419,7 +5409,7 @@
       <c r="X35" s="115" t="n"/>
       <c r="BY35" s="97" t="n"/>
     </row>
-    <row r="36" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="36">
       <c r="A36" s="99" t="n"/>
       <c r="B36" s="115" t="n"/>
       <c r="C36" s="115" t="n"/>
@@ -5446,7 +5436,7 @@
       <c r="X36" s="115" t="n"/>
       <c r="BY36" s="97" t="n"/>
     </row>
-    <row r="37" ht="12" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="12" r="37" thickBot="1">
       <c r="A37" s="100" t="n"/>
       <c r="B37" s="101" t="n"/>
       <c r="C37" s="101" t="n"/>
@@ -5525,7 +5515,7 @@
       <c r="BX37" s="101" t="n"/>
       <c r="BY37" s="102" t="n"/>
     </row>
-    <row r="38" ht="12" customHeight="1" thickTop="1">
+    <row customHeight="1" ht="12" r="38" thickTop="1">
       <c r="A38" s="223" t="inlineStr">
         <is>
           <t>Survey No</t>
@@ -5612,7 +5602,7 @@
       <c r="BX38" s="103" t="n"/>
       <c r="BY38" s="105" t="n"/>
     </row>
-    <row r="39" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="39">
       <c r="A39" s="217" t="inlineStr">
         <is>
           <t>Date</t>
@@ -5671,7 +5661,7 @@
       <c r="BX39" s="104" t="n"/>
       <c r="BY39" s="106" t="n"/>
     </row>
-    <row r="40" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="40">
       <c r="A40" s="217" t="inlineStr">
         <is>
           <t>Survey Tech</t>
@@ -5732,7 +5722,7 @@
       <c r="BX40" s="104" t="n"/>
       <c r="BY40" s="106" t="n"/>
     </row>
-    <row r="41" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="41">
       <c r="A41" s="217" t="inlineStr">
         <is>
           <t>Count Room Tech</t>
@@ -5793,7 +5783,7 @@
       <c r="BX41" s="104" t="n"/>
       <c r="BY41" s="106" t="n"/>
     </row>
-    <row r="42" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="42">
       <c r="A42" s="217" t="inlineStr">
         <is>
           <t>Date Counted</t>
@@ -5852,7 +5842,7 @@
       <c r="BX42" s="109" t="n"/>
       <c r="BY42" s="106" t="n"/>
     </row>
-    <row r="43" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="43">
       <c r="A43" s="217" t="inlineStr">
         <is>
           <t>Survey Type</t>
@@ -5913,7 +5903,7 @@
       <c r="BX43" s="109" t="n"/>
       <c r="BY43" s="106" t="n"/>
     </row>
-    <row r="44" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="44">
       <c r="A44" s="217" t="inlineStr">
         <is>
           <t>Level of Posting</t>
@@ -5974,7 +5964,7 @@
       <c r="BX44" s="104" t="n"/>
       <c r="BY44" s="106" t="n"/>
     </row>
-    <row r="45" ht="12" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="12" r="45" thickBot="1">
       <c r="A45" s="219" t="inlineStr">
         <is>
           <t>Comments</t>
@@ -6057,15 +6047,15 @@
       <c r="BX45" s="113" t="n"/>
       <c r="BY45" s="114" t="n"/>
     </row>
-    <row r="46" ht="12" customHeight="1" thickTop="1"/>
-    <row r="47" ht="13.2" customHeight="1"/>
-    <row r="48" ht="13.2" customHeight="1"/>
-    <row r="49" ht="13.2" customHeight="1"/>
-    <row r="51" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="46" thickTop="1"/>
+    <row customHeight="1" ht="13.2" r="47"/>
+    <row customHeight="1" ht="13.2" r="48"/>
+    <row customHeight="1" ht="13.2" r="49"/>
+    <row customHeight="1" ht="12" r="51">
       <c r="A51" s="116" t="n"/>
       <c r="B51" s="115" t="n"/>
     </row>
-    <row r="52" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="52">
       <c r="A52" s="116" t="n"/>
       <c r="B52" s="115" t="n"/>
     </row>
@@ -6090,8 +6080,8 @@
     <mergeCell ref="K43:Y43"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.375" footer="0.1"/>
-  <pageSetup orientation="landscape" fitToHeight="0"/>
+  <pageMargins bottom="0.25" footer="0.1" header="0.375" left="0.25" right="0.25" top="0.25"/>
+  <pageSetup fitToHeight="0" orientation="landscape"/>
 </worksheet>
 </file>
 
@@ -6103,17 +6093,17 @@
   </sheetPr>
   <dimension ref="A1:DH52"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
       <selection activeCell="AO20" sqref="AO20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="1.6640625" defaultRowHeight="12" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="1.6640625" defaultRowHeight="12"/>
   <cols>
-    <col width="1.6640625" customWidth="1" style="140" min="1" max="1"/>
-    <col width="1.6640625" customWidth="1" style="140" min="2" max="16384"/>
+    <col customWidth="1" max="1" min="1" style="140" width="1.6640625"/>
+    <col customWidth="1" max="16384" min="2" style="140" width="1.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="38.25" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="38.25" r="1" thickBot="1">
       <c r="A1" s="222" t="n"/>
       <c r="B1" s="203" t="n"/>
       <c r="C1" s="203" t="n"/>
@@ -6192,7 +6182,7 @@
       <c r="BX1" s="203" t="n"/>
       <c r="BY1" s="203" t="n"/>
     </row>
-    <row r="2" ht="12" customHeight="1" thickTop="1">
+    <row customHeight="1" ht="12" r="2" thickTop="1">
       <c r="A2" s="92" t="n"/>
       <c r="B2" s="93" t="n"/>
       <c r="C2" s="93" t="n"/>
@@ -6271,7 +6261,7 @@
       <c r="BX2" s="93" t="n"/>
       <c r="BY2" s="94" t="n"/>
     </row>
-    <row r="3" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="3">
       <c r="A3" s="95" t="n"/>
       <c r="B3" s="137" t="n"/>
       <c r="C3" s="138" t="n"/>
@@ -6350,7 +6340,7 @@
       <c r="BX3" s="138" t="n"/>
       <c r="BY3" s="96" t="n"/>
     </row>
-    <row r="4" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="4">
       <c r="A4" s="95" t="n"/>
       <c r="B4" s="138" t="n"/>
       <c r="C4" s="138" t="n"/>
@@ -6429,7 +6419,7 @@
       <c r="BX4" s="138" t="n"/>
       <c r="BY4" s="96" t="n"/>
     </row>
-    <row r="5" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="5">
       <c r="A5" s="99" t="n"/>
       <c r="AW5" s="139" t="n"/>
       <c r="AX5" s="139" t="n"/>
@@ -6447,7 +6437,7 @@
       <c r="BJ5" s="139" t="n"/>
       <c r="BY5" s="97" t="n"/>
     </row>
-    <row r="6" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="6">
       <c r="A6" s="99" t="n"/>
       <c r="AW6" s="139" t="n"/>
       <c r="AX6" s="139" t="n"/>
@@ -6465,7 +6455,7 @@
       <c r="BJ6" s="139" t="n"/>
       <c r="BY6" s="97" t="n"/>
     </row>
-    <row r="7" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="7">
       <c r="A7" s="99" t="n"/>
       <c r="V7" s="139" t="n"/>
       <c r="W7" s="139" t="n"/>
@@ -6499,7 +6489,7 @@
       <c r="BJ7" s="141" t="n"/>
       <c r="BY7" s="97" t="n"/>
     </row>
-    <row r="8" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="8">
       <c r="A8" s="99" t="n"/>
       <c r="V8" s="139" t="n"/>
       <c r="W8" s="139" t="n"/>
@@ -6533,7 +6523,7 @@
       <c r="BJ8" s="141" t="n"/>
       <c r="BY8" s="97" t="n"/>
     </row>
-    <row r="9" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="9">
       <c r="A9" s="99" t="n"/>
       <c r="V9" s="141" t="n"/>
       <c r="W9" s="141" t="n"/>
@@ -6553,7 +6543,7 @@
       <c r="AK9" s="141" t="n"/>
       <c r="BY9" s="97" t="n"/>
     </row>
-    <row r="10" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="10">
       <c r="A10" s="99" t="n"/>
       <c r="V10" s="141" t="n"/>
       <c r="W10" s="141" t="n"/>
@@ -6573,7 +6563,7 @@
       <c r="AK10" s="141" t="n"/>
       <c r="BY10" s="97" t="n"/>
     </row>
-    <row r="11" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="11">
       <c r="A11" s="99" t="n"/>
       <c r="V11" s="141" t="n"/>
       <c r="W11" s="141" t="n"/>
@@ -6593,19 +6583,19 @@
       <c r="AK11" s="141" t="n"/>
       <c r="BY11" s="97" t="n"/>
     </row>
-    <row r="12" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="12">
       <c r="A12" s="99" t="n"/>
       <c r="BY12" s="97" t="n"/>
     </row>
-    <row r="13" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="13">
       <c r="A13" s="99" t="n"/>
       <c r="BY13" s="97" t="n"/>
     </row>
-    <row r="14" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="14">
       <c r="A14" s="99" t="n"/>
       <c r="BY14" s="97" t="n"/>
     </row>
-    <row r="15" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="15">
       <c r="A15" s="99" t="n"/>
       <c r="BY15" s="97" t="n"/>
       <c r="CP15" s="115" t="n"/>
@@ -6628,7 +6618,7 @@
       <c r="DG15" s="115" t="n"/>
       <c r="DH15" s="115" t="n"/>
     </row>
-    <row r="16" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="16">
       <c r="A16" s="99" t="n"/>
       <c r="BY16" s="97" t="n"/>
       <c r="CP16" s="115" t="n"/>
@@ -6651,7 +6641,7 @@
       <c r="DG16" s="115" t="n"/>
       <c r="DH16" s="115" t="n"/>
     </row>
-    <row r="17" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="17">
       <c r="A17" s="99" t="n"/>
       <c r="BY17" s="97" t="n"/>
       <c r="CP17" s="115" t="n"/>
@@ -6674,7 +6664,7 @@
       <c r="DG17" s="115" t="n"/>
       <c r="DH17" s="115" t="n"/>
     </row>
-    <row r="18" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="18">
       <c r="A18" s="99" t="n"/>
       <c r="BY18" s="97" t="n"/>
       <c r="CP18" s="115" t="n"/>
@@ -6697,7 +6687,7 @@
       <c r="DG18" s="115" t="n"/>
       <c r="DH18" s="115" t="n"/>
     </row>
-    <row r="19" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="19">
       <c r="A19" s="99" t="n"/>
       <c r="BY19" s="97" t="n"/>
       <c r="CP19" s="115" t="n"/>
@@ -6720,7 +6710,7 @@
       <c r="DG19" s="115" t="n"/>
       <c r="DH19" s="115" t="n"/>
     </row>
-    <row r="20" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="20">
       <c r="A20" s="99" t="n"/>
       <c r="BY20" s="97" t="n"/>
       <c r="CP20" s="115" t="n"/>
@@ -6743,7 +6733,7 @@
       <c r="DG20" s="115" t="n"/>
       <c r="DH20" s="115" t="n"/>
     </row>
-    <row r="21" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="21">
       <c r="A21" s="99" t="n"/>
       <c r="BY21" s="97" t="n"/>
       <c r="CP21" s="115" t="n"/>
@@ -6766,7 +6756,7 @@
       <c r="DG21" s="115" t="n"/>
       <c r="DH21" s="115" t="n"/>
     </row>
-    <row r="22" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="22">
       <c r="A22" s="99" t="n"/>
       <c r="BY22" s="97" t="n"/>
       <c r="CP22" s="115" t="n"/>
@@ -6789,7 +6779,7 @@
       <c r="DG22" s="115" t="n"/>
       <c r="DH22" s="115" t="n"/>
     </row>
-    <row r="23" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="23">
       <c r="A23" s="99" t="n"/>
       <c r="AL23" s="139" t="n"/>
       <c r="AM23" s="139" t="n"/>
@@ -6822,7 +6812,7 @@
       <c r="DG23" s="115" t="n"/>
       <c r="DH23" s="115" t="n"/>
     </row>
-    <row r="24" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="24">
       <c r="A24" s="99" t="n"/>
       <c r="J24" s="139" t="n"/>
       <c r="K24" s="139" t="n"/>
@@ -6850,7 +6840,7 @@
       <c r="AU24" s="139" t="n"/>
       <c r="BY24" s="97" t="n"/>
     </row>
-    <row r="25" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="25">
       <c r="A25" s="99" t="n"/>
       <c r="J25" s="139" t="n"/>
       <c r="K25" s="139" t="n"/>
@@ -6878,7 +6868,7 @@
       <c r="AU25" s="141" t="n"/>
       <c r="BY25" s="97" t="n"/>
     </row>
-    <row r="26" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="26">
       <c r="A26" s="99" t="n"/>
       <c r="BC26" s="139" t="n"/>
       <c r="BD26" s="139" t="n"/>
@@ -6896,7 +6886,7 @@
       <c r="BP26" s="139" t="n"/>
       <c r="BY26" s="97" t="n"/>
     </row>
-    <row r="27" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="27">
       <c r="A27" s="99" t="n"/>
       <c r="B27" s="115" t="n"/>
       <c r="C27" s="115" t="n"/>
@@ -6938,7 +6928,7 @@
       <c r="BP27" s="139" t="n"/>
       <c r="BY27" s="97" t="n"/>
     </row>
-    <row r="28" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="28">
       <c r="A28" s="99" t="n"/>
       <c r="B28" s="115" t="n"/>
       <c r="C28" s="115" t="n"/>
@@ -6980,7 +6970,7 @@
       <c r="BP28" s="139" t="n"/>
       <c r="BY28" s="97" t="n"/>
     </row>
-    <row r="29" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="29">
       <c r="A29" s="99" t="n"/>
       <c r="B29" s="115" t="n"/>
       <c r="C29" s="115" t="n"/>
@@ -7022,7 +7012,7 @@
       <c r="BP29" s="139" t="n"/>
       <c r="BY29" s="97" t="n"/>
     </row>
-    <row r="30" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="30">
       <c r="A30" s="99" t="n"/>
       <c r="B30" s="115" t="n"/>
       <c r="C30" s="115" t="n"/>
@@ -7064,7 +7054,7 @@
       <c r="BP30" s="141" t="n"/>
       <c r="BY30" s="97" t="n"/>
     </row>
-    <row r="31" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="31">
       <c r="A31" s="99" t="n"/>
       <c r="B31" s="115" t="n"/>
       <c r="C31" s="115" t="n"/>
@@ -7106,7 +7096,7 @@
       <c r="BP31" s="141" t="n"/>
       <c r="BY31" s="97" t="n"/>
     </row>
-    <row r="32" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="32">
       <c r="A32" s="99" t="n"/>
       <c r="B32" s="115" t="n"/>
       <c r="C32" s="115" t="n"/>
@@ -7134,7 +7124,7 @@
       <c r="Y32" s="142" t="n"/>
       <c r="BY32" s="97" t="n"/>
     </row>
-    <row r="33" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="33">
       <c r="A33" s="99" t="n"/>
       <c r="B33" s="115" t="n"/>
       <c r="C33" s="115" t="n"/>
@@ -7195,7 +7185,7 @@
       <c r="BS33" s="144" t="n"/>
       <c r="BY33" s="97" t="n"/>
     </row>
-    <row r="34" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="34">
       <c r="A34" s="99" t="n"/>
       <c r="B34" s="115" t="n"/>
       <c r="C34" s="115" t="n"/>
@@ -7256,7 +7246,7 @@
       <c r="BS34" s="144" t="n"/>
       <c r="BY34" s="97" t="n"/>
     </row>
-    <row r="35" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="35">
       <c r="A35" s="99" t="n"/>
       <c r="B35" s="115" t="n"/>
       <c r="C35" s="115" t="n"/>
@@ -7283,7 +7273,7 @@
       <c r="X35" s="115" t="n"/>
       <c r="BY35" s="97" t="n"/>
     </row>
-    <row r="36" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="36">
       <c r="A36" s="99" t="n"/>
       <c r="B36" s="115" t="n"/>
       <c r="C36" s="115" t="n"/>
@@ -7310,7 +7300,7 @@
       <c r="X36" s="115" t="n"/>
       <c r="BY36" s="97" t="n"/>
     </row>
-    <row r="37" ht="12" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="12" r="37" thickBot="1">
       <c r="A37" s="100" t="n"/>
       <c r="B37" s="101" t="n"/>
       <c r="C37" s="101" t="n"/>
@@ -7389,7 +7379,7 @@
       <c r="BX37" s="101" t="n"/>
       <c r="BY37" s="102" t="n"/>
     </row>
-    <row r="38" ht="12" customHeight="1" thickTop="1">
+    <row customHeight="1" ht="12" r="38" thickTop="1">
       <c r="A38" s="223" t="inlineStr">
         <is>
           <t>Survey No</t>
@@ -7476,7 +7466,7 @@
       <c r="BX38" s="103" t="n"/>
       <c r="BY38" s="105" t="n"/>
     </row>
-    <row r="39" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="39">
       <c r="A39" s="217" t="inlineStr">
         <is>
           <t>Date</t>
@@ -7535,7 +7525,7 @@
       <c r="BX39" s="104" t="n"/>
       <c r="BY39" s="106" t="n"/>
     </row>
-    <row r="40" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="40">
       <c r="A40" s="217" t="inlineStr">
         <is>
           <t>Survey Tech</t>
@@ -7596,7 +7586,7 @@
       <c r="BX40" s="104" t="n"/>
       <c r="BY40" s="106" t="n"/>
     </row>
-    <row r="41" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="41">
       <c r="A41" s="217" t="inlineStr">
         <is>
           <t>Count Room Tech</t>
@@ -7657,7 +7647,7 @@
       <c r="BX41" s="104" t="n"/>
       <c r="BY41" s="106" t="n"/>
     </row>
-    <row r="42" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="42">
       <c r="A42" s="217" t="inlineStr">
         <is>
           <t>Date Counted</t>
@@ -7716,7 +7706,7 @@
       <c r="BX42" s="109" t="n"/>
       <c r="BY42" s="106" t="n"/>
     </row>
-    <row r="43" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="43">
       <c r="A43" s="217" t="inlineStr">
         <is>
           <t>Survey Type</t>
@@ -7777,7 +7767,7 @@
       <c r="BX43" s="109" t="n"/>
       <c r="BY43" s="106" t="n"/>
     </row>
-    <row r="44" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="44">
       <c r="A44" s="217" t="inlineStr">
         <is>
           <t>Level of Posting</t>
@@ -7838,7 +7828,7 @@
       <c r="BX44" s="104" t="n"/>
       <c r="BY44" s="106" t="n"/>
     </row>
-    <row r="45" ht="12" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="12" r="45" thickBot="1">
       <c r="A45" s="219" t="inlineStr">
         <is>
           <t>Comments</t>
@@ -7921,15 +7911,15 @@
       <c r="BX45" s="113" t="n"/>
       <c r="BY45" s="114" t="n"/>
     </row>
-    <row r="46" ht="12" customHeight="1" thickTop="1"/>
-    <row r="47" ht="13.2" customHeight="1"/>
-    <row r="48" ht="13.2" customHeight="1"/>
-    <row r="49" ht="13.2" customHeight="1"/>
-    <row r="51" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="46" thickTop="1"/>
+    <row customHeight="1" ht="13.2" r="47"/>
+    <row customHeight="1" ht="13.2" r="48"/>
+    <row customHeight="1" ht="13.2" r="49"/>
+    <row customHeight="1" ht="12" r="51">
       <c r="A51" s="116" t="n"/>
       <c r="B51" s="115" t="n"/>
     </row>
-    <row r="52" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="52">
       <c r="A52" s="116" t="n"/>
       <c r="B52" s="115" t="n"/>
     </row>
@@ -7954,8 +7944,8 @@
     <mergeCell ref="K43:Y43"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.375" footer="0.1"/>
-  <pageSetup orientation="landscape" fitToHeight="0"/>
+  <pageMargins bottom="0.25" footer="0.1" header="0.375" left="0.25" right="0.25" top="0.25"/>
+  <pageSetup fitToHeight="0" orientation="landscape"/>
 </worksheet>
 </file>
 
@@ -7967,17 +7957,17 @@
   </sheetPr>
   <dimension ref="A1:DH52"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
       <selection activeCell="CK44" sqref="CK44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="1.6640625" defaultRowHeight="12" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="1.6640625" defaultRowHeight="12"/>
   <cols>
-    <col width="1.6640625" customWidth="1" style="140" min="1" max="1"/>
-    <col width="1.6640625" customWidth="1" style="140" min="2" max="16384"/>
+    <col customWidth="1" max="1" min="1" style="140" width="1.6640625"/>
+    <col customWidth="1" max="16384" min="2" style="140" width="1.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="38.25" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="38.25" r="1" thickBot="1">
       <c r="A1" s="222" t="n"/>
       <c r="B1" s="203" t="n"/>
       <c r="C1" s="203" t="n"/>
@@ -8056,7 +8046,7 @@
       <c r="BX1" s="203" t="n"/>
       <c r="BY1" s="203" t="n"/>
     </row>
-    <row r="2" ht="12" customHeight="1" thickTop="1">
+    <row customHeight="1" ht="12" r="2" thickTop="1">
       <c r="A2" s="92" t="n"/>
       <c r="B2" s="93" t="n"/>
       <c r="C2" s="93" t="n"/>
@@ -8135,7 +8125,7 @@
       <c r="BX2" s="93" t="n"/>
       <c r="BY2" s="94" t="n"/>
     </row>
-    <row r="3" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="3">
       <c r="A3" s="95" t="n"/>
       <c r="B3" s="137" t="n"/>
       <c r="C3" s="138" t="n"/>
@@ -8214,7 +8204,7 @@
       <c r="BX3" s="138" t="n"/>
       <c r="BY3" s="96" t="n"/>
     </row>
-    <row r="4" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="4">
       <c r="A4" s="95" t="n"/>
       <c r="B4" s="138" t="n"/>
       <c r="C4" s="138" t="n"/>
@@ -8293,7 +8283,7 @@
       <c r="BX4" s="138" t="n"/>
       <c r="BY4" s="96" t="n"/>
     </row>
-    <row r="5" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="5">
       <c r="A5" s="99" t="n"/>
       <c r="AW5" s="139" t="n"/>
       <c r="AX5" s="139" t="n"/>
@@ -8311,7 +8301,7 @@
       <c r="BJ5" s="139" t="n"/>
       <c r="BY5" s="97" t="n"/>
     </row>
-    <row r="6" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="6">
       <c r="A6" s="99" t="n"/>
       <c r="AW6" s="139" t="n"/>
       <c r="AX6" s="139" t="n"/>
@@ -8329,7 +8319,7 @@
       <c r="BJ6" s="139" t="n"/>
       <c r="BY6" s="97" t="n"/>
     </row>
-    <row r="7" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="7">
       <c r="A7" s="99" t="n"/>
       <c r="V7" s="139" t="n"/>
       <c r="W7" s="139" t="n"/>
@@ -8363,7 +8353,7 @@
       <c r="BJ7" s="141" t="n"/>
       <c r="BY7" s="97" t="n"/>
     </row>
-    <row r="8" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="8">
       <c r="A8" s="99" t="n"/>
       <c r="V8" s="139" t="n"/>
       <c r="W8" s="139" t="n"/>
@@ -8397,7 +8387,7 @@
       <c r="BJ8" s="141" t="n"/>
       <c r="BY8" s="97" t="n"/>
     </row>
-    <row r="9" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="9">
       <c r="A9" s="99" t="n"/>
       <c r="V9" s="141" t="n"/>
       <c r="W9" s="141" t="n"/>
@@ -8417,7 +8407,7 @@
       <c r="AK9" s="141" t="n"/>
       <c r="BY9" s="97" t="n"/>
     </row>
-    <row r="10" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="10">
       <c r="A10" s="99" t="n"/>
       <c r="V10" s="141" t="n"/>
       <c r="W10" s="141" t="n"/>
@@ -8437,7 +8427,7 @@
       <c r="AK10" s="141" t="n"/>
       <c r="BY10" s="97" t="n"/>
     </row>
-    <row r="11" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="11">
       <c r="A11" s="99" t="n"/>
       <c r="V11" s="141" t="n"/>
       <c r="W11" s="141" t="n"/>
@@ -8457,19 +8447,19 @@
       <c r="AK11" s="141" t="n"/>
       <c r="BY11" s="97" t="n"/>
     </row>
-    <row r="12" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="12">
       <c r="A12" s="99" t="n"/>
       <c r="BY12" s="97" t="n"/>
     </row>
-    <row r="13" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="13">
       <c r="A13" s="99" t="n"/>
       <c r="BY13" s="97" t="n"/>
     </row>
-    <row r="14" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="14">
       <c r="A14" s="99" t="n"/>
       <c r="BY14" s="97" t="n"/>
     </row>
-    <row r="15" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="15">
       <c r="A15" s="99" t="n"/>
       <c r="BY15" s="97" t="n"/>
       <c r="CP15" s="115" t="n"/>
@@ -8492,7 +8482,7 @@
       <c r="DG15" s="115" t="n"/>
       <c r="DH15" s="115" t="n"/>
     </row>
-    <row r="16" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="16">
       <c r="A16" s="99" t="n"/>
       <c r="BY16" s="97" t="n"/>
       <c r="CP16" s="115" t="n"/>
@@ -8515,7 +8505,7 @@
       <c r="DG16" s="115" t="n"/>
       <c r="DH16" s="115" t="n"/>
     </row>
-    <row r="17" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="17">
       <c r="A17" s="99" t="n"/>
       <c r="BY17" s="97" t="n"/>
       <c r="CP17" s="115" t="n"/>
@@ -8538,7 +8528,7 @@
       <c r="DG17" s="115" t="n"/>
       <c r="DH17" s="115" t="n"/>
     </row>
-    <row r="18" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="18">
       <c r="A18" s="99" t="n"/>
       <c r="BY18" s="97" t="n"/>
       <c r="CP18" s="115" t="n"/>
@@ -8561,7 +8551,7 @@
       <c r="DG18" s="115" t="n"/>
       <c r="DH18" s="115" t="n"/>
     </row>
-    <row r="19" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="19">
       <c r="A19" s="99" t="n"/>
       <c r="BY19" s="97" t="n"/>
       <c r="CP19" s="115" t="n"/>
@@ -8584,7 +8574,7 @@
       <c r="DG19" s="115" t="n"/>
       <c r="DH19" s="115" t="n"/>
     </row>
-    <row r="20" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="20">
       <c r="A20" s="99" t="n"/>
       <c r="BY20" s="97" t="n"/>
       <c r="CP20" s="115" t="n"/>
@@ -8607,7 +8597,7 @@
       <c r="DG20" s="115" t="n"/>
       <c r="DH20" s="115" t="n"/>
     </row>
-    <row r="21" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="21">
       <c r="A21" s="99" t="n"/>
       <c r="BY21" s="97" t="n"/>
       <c r="CP21" s="115" t="n"/>
@@ -8630,7 +8620,7 @@
       <c r="DG21" s="115" t="n"/>
       <c r="DH21" s="115" t="n"/>
     </row>
-    <row r="22" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="22">
       <c r="A22" s="99" t="n"/>
       <c r="BY22" s="97" t="n"/>
       <c r="CP22" s="115" t="n"/>
@@ -8653,7 +8643,7 @@
       <c r="DG22" s="115" t="n"/>
       <c r="DH22" s="115" t="n"/>
     </row>
-    <row r="23" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="23">
       <c r="A23" s="99" t="n"/>
       <c r="AL23" s="139" t="n"/>
       <c r="AM23" s="139" t="n"/>
@@ -8686,7 +8676,7 @@
       <c r="DG23" s="115" t="n"/>
       <c r="DH23" s="115" t="n"/>
     </row>
-    <row r="24" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="24">
       <c r="A24" s="99" t="n"/>
       <c r="J24" s="139" t="n"/>
       <c r="K24" s="139" t="n"/>
@@ -8714,7 +8704,7 @@
       <c r="AU24" s="139" t="n"/>
       <c r="BY24" s="97" t="n"/>
     </row>
-    <row r="25" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="25">
       <c r="A25" s="99" t="n"/>
       <c r="J25" s="139" t="n"/>
       <c r="K25" s="139" t="n"/>
@@ -8742,7 +8732,7 @@
       <c r="AU25" s="141" t="n"/>
       <c r="BY25" s="97" t="n"/>
     </row>
-    <row r="26" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="26">
       <c r="A26" s="99" t="n"/>
       <c r="BC26" s="139" t="n"/>
       <c r="BD26" s="139" t="n"/>
@@ -8760,7 +8750,7 @@
       <c r="BP26" s="139" t="n"/>
       <c r="BY26" s="97" t="n"/>
     </row>
-    <row r="27" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="27">
       <c r="A27" s="99" t="n"/>
       <c r="B27" s="115" t="n"/>
       <c r="C27" s="115" t="n"/>
@@ -8802,7 +8792,7 @@
       <c r="BP27" s="139" t="n"/>
       <c r="BY27" s="97" t="n"/>
     </row>
-    <row r="28" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="28">
       <c r="A28" s="99" t="n"/>
       <c r="B28" s="115" t="n"/>
       <c r="C28" s="115" t="n"/>
@@ -8844,7 +8834,7 @@
       <c r="BP28" s="139" t="n"/>
       <c r="BY28" s="97" t="n"/>
     </row>
-    <row r="29" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="29">
       <c r="A29" s="99" t="n"/>
       <c r="B29" s="115" t="n"/>
       <c r="C29" s="115" t="n"/>
@@ -8886,7 +8876,7 @@
       <c r="BP29" s="139" t="n"/>
       <c r="BY29" s="97" t="n"/>
     </row>
-    <row r="30" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="30">
       <c r="A30" s="99" t="n"/>
       <c r="B30" s="115" t="n"/>
       <c r="C30" s="115" t="n"/>
@@ -8928,7 +8918,7 @@
       <c r="BP30" s="141" t="n"/>
       <c r="BY30" s="97" t="n"/>
     </row>
-    <row r="31" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="31">
       <c r="A31" s="99" t="n"/>
       <c r="B31" s="115" t="n"/>
       <c r="C31" s="115" t="n"/>
@@ -8970,7 +8960,7 @@
       <c r="BP31" s="141" t="n"/>
       <c r="BY31" s="97" t="n"/>
     </row>
-    <row r="32" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="32">
       <c r="A32" s="99" t="n"/>
       <c r="B32" s="115" t="n"/>
       <c r="C32" s="115" t="n"/>
@@ -8998,7 +8988,7 @@
       <c r="Y32" s="142" t="n"/>
       <c r="BY32" s="97" t="n"/>
     </row>
-    <row r="33" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="33">
       <c r="A33" s="99" t="n"/>
       <c r="B33" s="115" t="n"/>
       <c r="C33" s="115" t="n"/>
@@ -9059,7 +9049,7 @@
       <c r="BS33" s="144" t="n"/>
       <c r="BY33" s="97" t="n"/>
     </row>
-    <row r="34" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="34">
       <c r="A34" s="99" t="n"/>
       <c r="B34" s="115" t="n"/>
       <c r="C34" s="115" t="n"/>
@@ -9120,7 +9110,7 @@
       <c r="BS34" s="144" t="n"/>
       <c r="BY34" s="97" t="n"/>
     </row>
-    <row r="35" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="35">
       <c r="A35" s="99" t="n"/>
       <c r="B35" s="115" t="n"/>
       <c r="C35" s="115" t="n"/>
@@ -9147,7 +9137,7 @@
       <c r="X35" s="115" t="n"/>
       <c r="BY35" s="97" t="n"/>
     </row>
-    <row r="36" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="36">
       <c r="A36" s="99" t="n"/>
       <c r="B36" s="115" t="n"/>
       <c r="C36" s="115" t="n"/>
@@ -9174,7 +9164,7 @@
       <c r="X36" s="115" t="n"/>
       <c r="BY36" s="97" t="n"/>
     </row>
-    <row r="37" ht="12" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="12" r="37" thickBot="1">
       <c r="A37" s="100" t="n"/>
       <c r="B37" s="101" t="n"/>
       <c r="C37" s="101" t="n"/>
@@ -9253,7 +9243,7 @@
       <c r="BX37" s="101" t="n"/>
       <c r="BY37" s="102" t="n"/>
     </row>
-    <row r="38" ht="12" customHeight="1" thickTop="1">
+    <row customHeight="1" ht="12" r="38" thickTop="1">
       <c r="A38" s="223" t="inlineStr">
         <is>
           <t>Survey No</t>
@@ -9340,7 +9330,7 @@
       <c r="BX38" s="103" t="n"/>
       <c r="BY38" s="105" t="n"/>
     </row>
-    <row r="39" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="39">
       <c r="A39" s="217" t="inlineStr">
         <is>
           <t>Date</t>
@@ -9399,7 +9389,7 @@
       <c r="BX39" s="104" t="n"/>
       <c r="BY39" s="106" t="n"/>
     </row>
-    <row r="40" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="40">
       <c r="A40" s="217" t="inlineStr">
         <is>
           <t>Survey Tech</t>
@@ -9460,7 +9450,7 @@
       <c r="BX40" s="104" t="n"/>
       <c r="BY40" s="106" t="n"/>
     </row>
-    <row r="41" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="41">
       <c r="A41" s="217" t="inlineStr">
         <is>
           <t>Count Room Tech</t>
@@ -9521,7 +9511,7 @@
       <c r="BX41" s="104" t="n"/>
       <c r="BY41" s="106" t="n"/>
     </row>
-    <row r="42" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="42">
       <c r="A42" s="217" t="inlineStr">
         <is>
           <t>Date Counted</t>
@@ -9580,7 +9570,7 @@
       <c r="BX42" s="109" t="n"/>
       <c r="BY42" s="106" t="n"/>
     </row>
-    <row r="43" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="43">
       <c r="A43" s="217" t="inlineStr">
         <is>
           <t>Survey Type</t>
@@ -9641,7 +9631,7 @@
       <c r="BX43" s="109" t="n"/>
       <c r="BY43" s="106" t="n"/>
     </row>
-    <row r="44" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="44">
       <c r="A44" s="217" t="inlineStr">
         <is>
           <t>Level of Posting</t>
@@ -9702,7 +9692,7 @@
       <c r="BX44" s="104" t="n"/>
       <c r="BY44" s="106" t="n"/>
     </row>
-    <row r="45" ht="12" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="12" r="45" thickBot="1">
       <c r="A45" s="219" t="inlineStr">
         <is>
           <t>Comments</t>
@@ -9785,15 +9775,15 @@
       <c r="BX45" s="113" t="n"/>
       <c r="BY45" s="114" t="n"/>
     </row>
-    <row r="46" ht="12" customHeight="1" thickTop="1"/>
-    <row r="47" ht="13.2" customHeight="1"/>
-    <row r="48" ht="13.2" customHeight="1"/>
-    <row r="49" ht="13.2" customHeight="1"/>
-    <row r="51" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="46" thickTop="1"/>
+    <row customHeight="1" ht="13.2" r="47"/>
+    <row customHeight="1" ht="13.2" r="48"/>
+    <row customHeight="1" ht="13.2" r="49"/>
+    <row customHeight="1" ht="12" r="51">
       <c r="A51" s="116" t="n"/>
       <c r="B51" s="115" t="n"/>
     </row>
-    <row r="52" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="52">
       <c r="A52" s="116" t="n"/>
       <c r="B52" s="115" t="n"/>
     </row>
@@ -9818,8 +9808,8 @@
     <mergeCell ref="K43:Y43"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.375" footer="0.1"/>
-  <pageSetup orientation="landscape" fitToHeight="0"/>
+  <pageMargins bottom="0.25" footer="0.1" header="0.375" left="0.25" right="0.25" top="0.25"/>
+  <pageSetup fitToHeight="0" orientation="landscape"/>
 </worksheet>
 </file>
 
@@ -9831,17 +9821,17 @@
   </sheetPr>
   <dimension ref="A1:DH52"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
       <selection activeCell="CA29" sqref="CA29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="1.6640625" defaultRowHeight="12" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="1.6640625" defaultRowHeight="12"/>
   <cols>
-    <col width="1.6640625" customWidth="1" style="140" min="1" max="1"/>
-    <col width="1.6640625" customWidth="1" style="140" min="2" max="16384"/>
+    <col customWidth="1" max="1" min="1" style="140" width="1.6640625"/>
+    <col customWidth="1" max="16384" min="2" style="140" width="1.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="38.25" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="38.25" r="1" thickBot="1">
       <c r="A1" s="222" t="n"/>
       <c r="B1" s="203" t="n"/>
       <c r="C1" s="203" t="n"/>
@@ -9920,7 +9910,7 @@
       <c r="BX1" s="203" t="n"/>
       <c r="BY1" s="203" t="n"/>
     </row>
-    <row r="2" ht="12" customHeight="1" thickTop="1">
+    <row customHeight="1" ht="12" r="2" thickTop="1">
       <c r="A2" s="92" t="n"/>
       <c r="B2" s="93" t="n"/>
       <c r="C2" s="93" t="n"/>
@@ -9999,7 +9989,7 @@
       <c r="BX2" s="93" t="n"/>
       <c r="BY2" s="94" t="n"/>
     </row>
-    <row r="3" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="3">
       <c r="A3" s="95" t="n"/>
       <c r="B3" s="137" t="n"/>
       <c r="C3" s="138" t="n"/>
@@ -10078,7 +10068,7 @@
       <c r="BX3" s="138" t="n"/>
       <c r="BY3" s="96" t="n"/>
     </row>
-    <row r="4" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="4">
       <c r="A4" s="95" t="n"/>
       <c r="B4" s="138" t="n"/>
       <c r="C4" s="138" t="n"/>
@@ -10157,7 +10147,7 @@
       <c r="BX4" s="138" t="n"/>
       <c r="BY4" s="96" t="n"/>
     </row>
-    <row r="5" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="5">
       <c r="A5" s="99" t="n"/>
       <c r="AW5" s="139" t="n"/>
       <c r="AX5" s="139" t="n"/>
@@ -10175,7 +10165,7 @@
       <c r="BJ5" s="139" t="n"/>
       <c r="BY5" s="97" t="n"/>
     </row>
-    <row r="6" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="6">
       <c r="A6" s="99" t="n"/>
       <c r="AW6" s="139" t="n"/>
       <c r="AX6" s="139" t="n"/>
@@ -10193,7 +10183,7 @@
       <c r="BJ6" s="139" t="n"/>
       <c r="BY6" s="97" t="n"/>
     </row>
-    <row r="7" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="7">
       <c r="A7" s="99" t="n"/>
       <c r="V7" s="139" t="n"/>
       <c r="W7" s="139" t="n"/>
@@ -10227,7 +10217,7 @@
       <c r="BJ7" s="141" t="n"/>
       <c r="BY7" s="97" t="n"/>
     </row>
-    <row r="8" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="8">
       <c r="A8" s="99" t="n"/>
       <c r="V8" s="139" t="n"/>
       <c r="W8" s="139" t="n"/>
@@ -10261,7 +10251,7 @@
       <c r="BJ8" s="141" t="n"/>
       <c r="BY8" s="97" t="n"/>
     </row>
-    <row r="9" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="9">
       <c r="A9" s="99" t="n"/>
       <c r="V9" s="141" t="n"/>
       <c r="W9" s="141" t="n"/>
@@ -10281,7 +10271,7 @@
       <c r="AK9" s="141" t="n"/>
       <c r="BY9" s="97" t="n"/>
     </row>
-    <row r="10" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="10">
       <c r="A10" s="99" t="n"/>
       <c r="V10" s="141" t="n"/>
       <c r="W10" s="141" t="n"/>
@@ -10301,7 +10291,7 @@
       <c r="AK10" s="141" t="n"/>
       <c r="BY10" s="97" t="n"/>
     </row>
-    <row r="11" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="11">
       <c r="A11" s="99" t="n"/>
       <c r="V11" s="141" t="n"/>
       <c r="W11" s="141" t="n"/>
@@ -10321,19 +10311,19 @@
       <c r="AK11" s="141" t="n"/>
       <c r="BY11" s="97" t="n"/>
     </row>
-    <row r="12" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="12">
       <c r="A12" s="99" t="n"/>
       <c r="BY12" s="97" t="n"/>
     </row>
-    <row r="13" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="13">
       <c r="A13" s="99" t="n"/>
       <c r="BY13" s="97" t="n"/>
     </row>
-    <row r="14" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="14">
       <c r="A14" s="99" t="n"/>
       <c r="BY14" s="97" t="n"/>
     </row>
-    <row r="15" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="15">
       <c r="A15" s="99" t="n"/>
       <c r="BY15" s="97" t="n"/>
       <c r="CP15" s="115" t="n"/>
@@ -10356,7 +10346,7 @@
       <c r="DG15" s="115" t="n"/>
       <c r="DH15" s="115" t="n"/>
     </row>
-    <row r="16" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="16">
       <c r="A16" s="99" t="n"/>
       <c r="BY16" s="97" t="n"/>
       <c r="CP16" s="115" t="n"/>
@@ -10379,7 +10369,7 @@
       <c r="DG16" s="115" t="n"/>
       <c r="DH16" s="115" t="n"/>
     </row>
-    <row r="17" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="17">
       <c r="A17" s="99" t="n"/>
       <c r="BY17" s="97" t="n"/>
       <c r="CP17" s="115" t="n"/>
@@ -10402,7 +10392,7 @@
       <c r="DG17" s="115" t="n"/>
       <c r="DH17" s="115" t="n"/>
     </row>
-    <row r="18" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="18">
       <c r="A18" s="99" t="n"/>
       <c r="BY18" s="97" t="n"/>
       <c r="CP18" s="115" t="n"/>
@@ -10425,7 +10415,7 @@
       <c r="DG18" s="115" t="n"/>
       <c r="DH18" s="115" t="n"/>
     </row>
-    <row r="19" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="19">
       <c r="A19" s="99" t="n"/>
       <c r="BY19" s="97" t="n"/>
       <c r="CP19" s="115" t="n"/>
@@ -10448,7 +10438,7 @@
       <c r="DG19" s="115" t="n"/>
       <c r="DH19" s="115" t="n"/>
     </row>
-    <row r="20" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="20">
       <c r="A20" s="99" t="n"/>
       <c r="BY20" s="97" t="n"/>
       <c r="CP20" s="115" t="n"/>
@@ -10471,7 +10461,7 @@
       <c r="DG20" s="115" t="n"/>
       <c r="DH20" s="115" t="n"/>
     </row>
-    <row r="21" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="21">
       <c r="A21" s="99" t="n"/>
       <c r="BY21" s="97" t="n"/>
       <c r="CP21" s="115" t="n"/>
@@ -10494,7 +10484,7 @@
       <c r="DG21" s="115" t="n"/>
       <c r="DH21" s="115" t="n"/>
     </row>
-    <row r="22" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="22">
       <c r="A22" s="99" t="n"/>
       <c r="BY22" s="97" t="n"/>
       <c r="CP22" s="115" t="n"/>
@@ -10517,7 +10507,7 @@
       <c r="DG22" s="115" t="n"/>
       <c r="DH22" s="115" t="n"/>
     </row>
-    <row r="23" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="23">
       <c r="A23" s="99" t="n"/>
       <c r="AL23" s="139" t="n"/>
       <c r="AM23" s="139" t="n"/>
@@ -10550,7 +10540,7 @@
       <c r="DG23" s="115" t="n"/>
       <c r="DH23" s="115" t="n"/>
     </row>
-    <row r="24" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="24">
       <c r="A24" s="99" t="n"/>
       <c r="J24" s="139" t="n"/>
       <c r="K24" s="139" t="n"/>
@@ -10578,7 +10568,7 @@
       <c r="AU24" s="139" t="n"/>
       <c r="BY24" s="97" t="n"/>
     </row>
-    <row r="25" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="25">
       <c r="A25" s="99" t="n"/>
       <c r="J25" s="139" t="n"/>
       <c r="K25" s="139" t="n"/>
@@ -10606,7 +10596,7 @@
       <c r="AU25" s="141" t="n"/>
       <c r="BY25" s="97" t="n"/>
     </row>
-    <row r="26" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="26">
       <c r="A26" s="99" t="n"/>
       <c r="BC26" s="139" t="n"/>
       <c r="BD26" s="139" t="n"/>
@@ -10624,7 +10614,7 @@
       <c r="BP26" s="139" t="n"/>
       <c r="BY26" s="97" t="n"/>
     </row>
-    <row r="27" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="27">
       <c r="A27" s="99" t="n"/>
       <c r="B27" s="115" t="n"/>
       <c r="C27" s="115" t="n"/>
@@ -10666,7 +10656,7 @@
       <c r="BP27" s="139" t="n"/>
       <c r="BY27" s="97" t="n"/>
     </row>
-    <row r="28" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="28">
       <c r="A28" s="99" t="n"/>
       <c r="B28" s="115" t="n"/>
       <c r="C28" s="115" t="n"/>
@@ -10708,7 +10698,7 @@
       <c r="BP28" s="139" t="n"/>
       <c r="BY28" s="97" t="n"/>
     </row>
-    <row r="29" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="29">
       <c r="A29" s="99" t="n"/>
       <c r="B29" s="115" t="n"/>
       <c r="C29" s="115" t="n"/>
@@ -10750,7 +10740,7 @@
       <c r="BP29" s="139" t="n"/>
       <c r="BY29" s="97" t="n"/>
     </row>
-    <row r="30" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="30">
       <c r="A30" s="99" t="n"/>
       <c r="B30" s="115" t="n"/>
       <c r="C30" s="115" t="n"/>
@@ -10792,7 +10782,7 @@
       <c r="BP30" s="141" t="n"/>
       <c r="BY30" s="97" t="n"/>
     </row>
-    <row r="31" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="31">
       <c r="A31" s="99" t="n"/>
       <c r="B31" s="115" t="n"/>
       <c r="C31" s="115" t="n"/>
@@ -10834,7 +10824,7 @@
       <c r="BP31" s="141" t="n"/>
       <c r="BY31" s="97" t="n"/>
     </row>
-    <row r="32" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="32">
       <c r="A32" s="99" t="n"/>
       <c r="B32" s="115" t="n"/>
       <c r="C32" s="115" t="n"/>
@@ -10862,7 +10852,7 @@
       <c r="Y32" s="142" t="n"/>
       <c r="BY32" s="97" t="n"/>
     </row>
-    <row r="33" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="33">
       <c r="A33" s="99" t="n"/>
       <c r="B33" s="115" t="n"/>
       <c r="C33" s="115" t="n"/>
@@ -10923,7 +10913,7 @@
       <c r="BS33" s="144" t="n"/>
       <c r="BY33" s="97" t="n"/>
     </row>
-    <row r="34" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="34">
       <c r="A34" s="99" t="n"/>
       <c r="B34" s="115" t="n"/>
       <c r="C34" s="115" t="n"/>
@@ -10984,7 +10974,7 @@
       <c r="BS34" s="144" t="n"/>
       <c r="BY34" s="97" t="n"/>
     </row>
-    <row r="35" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="35">
       <c r="A35" s="99" t="n"/>
       <c r="B35" s="115" t="n"/>
       <c r="C35" s="115" t="n"/>
@@ -11011,7 +11001,7 @@
       <c r="X35" s="115" t="n"/>
       <c r="BY35" s="97" t="n"/>
     </row>
-    <row r="36" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="36">
       <c r="A36" s="99" t="n"/>
       <c r="B36" s="115" t="n"/>
       <c r="C36" s="115" t="n"/>
@@ -11038,7 +11028,7 @@
       <c r="X36" s="115" t="n"/>
       <c r="BY36" s="97" t="n"/>
     </row>
-    <row r="37" ht="12" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="12" r="37" thickBot="1">
       <c r="A37" s="100" t="n"/>
       <c r="B37" s="101" t="n"/>
       <c r="C37" s="101" t="n"/>
@@ -11117,7 +11107,7 @@
       <c r="BX37" s="101" t="n"/>
       <c r="BY37" s="102" t="n"/>
     </row>
-    <row r="38" ht="12" customHeight="1" thickTop="1">
+    <row customHeight="1" ht="12" r="38" thickTop="1">
       <c r="A38" s="223" t="inlineStr">
         <is>
           <t>Survey No</t>
@@ -11204,7 +11194,7 @@
       <c r="BX38" s="103" t="n"/>
       <c r="BY38" s="105" t="n"/>
     </row>
-    <row r="39" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="39">
       <c r="A39" s="217" t="inlineStr">
         <is>
           <t>Date</t>
@@ -11263,7 +11253,7 @@
       <c r="BX39" s="104" t="n"/>
       <c r="BY39" s="106" t="n"/>
     </row>
-    <row r="40" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="40">
       <c r="A40" s="217" t="inlineStr">
         <is>
           <t>Survey Tech</t>
@@ -11324,7 +11314,7 @@
       <c r="BX40" s="104" t="n"/>
       <c r="BY40" s="106" t="n"/>
     </row>
-    <row r="41" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="41">
       <c r="A41" s="217" t="inlineStr">
         <is>
           <t>Count Room Tech</t>
@@ -11385,7 +11375,7 @@
       <c r="BX41" s="104" t="n"/>
       <c r="BY41" s="106" t="n"/>
     </row>
-    <row r="42" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="42">
       <c r="A42" s="217" t="inlineStr">
         <is>
           <t>Date Counted</t>
@@ -11444,7 +11434,7 @@
       <c r="BX42" s="109" t="n"/>
       <c r="BY42" s="106" t="n"/>
     </row>
-    <row r="43" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="43">
       <c r="A43" s="217" t="inlineStr">
         <is>
           <t>Survey Type</t>
@@ -11505,7 +11495,7 @@
       <c r="BX43" s="109" t="n"/>
       <c r="BY43" s="106" t="n"/>
     </row>
-    <row r="44" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="44">
       <c r="A44" s="217" t="inlineStr">
         <is>
           <t>Level of Posting</t>
@@ -11566,7 +11556,7 @@
       <c r="BX44" s="104" t="n"/>
       <c r="BY44" s="106" t="n"/>
     </row>
-    <row r="45" ht="12" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="12" r="45" thickBot="1">
       <c r="A45" s="219" t="inlineStr">
         <is>
           <t>Comments</t>
@@ -11649,15 +11639,15 @@
       <c r="BX45" s="113" t="n"/>
       <c r="BY45" s="114" t="n"/>
     </row>
-    <row r="46" ht="12" customHeight="1" thickTop="1"/>
-    <row r="47" ht="13.2" customHeight="1"/>
-    <row r="48" ht="13.2" customHeight="1"/>
-    <row r="49" ht="13.2" customHeight="1"/>
-    <row r="51" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="46" thickTop="1"/>
+    <row customHeight="1" ht="13.2" r="47"/>
+    <row customHeight="1" ht="13.2" r="48"/>
+    <row customHeight="1" ht="13.2" r="49"/>
+    <row customHeight="1" ht="12" r="51">
       <c r="A51" s="116" t="n"/>
       <c r="B51" s="115" t="n"/>
     </row>
-    <row r="52" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="52">
       <c r="A52" s="116" t="n"/>
       <c r="B52" s="115" t="n"/>
     </row>
@@ -11682,8 +11672,8 @@
     <mergeCell ref="A38:J38"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.375" footer="0.1"/>
-  <pageSetup orientation="landscape" fitToHeight="0"/>
+  <pageMargins bottom="0.25" footer="0.1" header="0.375" left="0.25" right="0.25" top="0.25"/>
+  <pageSetup fitToHeight="0" orientation="landscape"/>
 </worksheet>
 </file>
 
@@ -11695,17 +11685,17 @@
   </sheetPr>
   <dimension ref="A1:DH52"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
       <selection activeCell="BV26" sqref="BV26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="1.6640625" defaultRowHeight="12" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="1.6640625" defaultRowHeight="12"/>
   <cols>
-    <col width="1.6640625" customWidth="1" style="140" min="1" max="1"/>
-    <col width="1.6640625" customWidth="1" style="140" min="2" max="16384"/>
+    <col customWidth="1" max="1" min="1" style="140" width="1.6640625"/>
+    <col customWidth="1" max="16384" min="2" style="140" width="1.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="38.25" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="38.25" r="1" thickBot="1">
       <c r="A1" s="222" t="n"/>
       <c r="B1" s="203" t="n"/>
       <c r="C1" s="203" t="n"/>
@@ -11784,7 +11774,7 @@
       <c r="BX1" s="203" t="n"/>
       <c r="BY1" s="203" t="n"/>
     </row>
-    <row r="2" ht="12" customHeight="1" thickTop="1">
+    <row customHeight="1" ht="12" r="2" thickTop="1">
       <c r="A2" s="92" t="n"/>
       <c r="B2" s="93" t="n"/>
       <c r="C2" s="93" t="n"/>
@@ -11863,7 +11853,7 @@
       <c r="BX2" s="93" t="n"/>
       <c r="BY2" s="94" t="n"/>
     </row>
-    <row r="3" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="3">
       <c r="A3" s="95" t="n"/>
       <c r="B3" s="137" t="n"/>
       <c r="C3" s="138" t="n"/>
@@ -11942,7 +11932,7 @@
       <c r="BX3" s="138" t="n"/>
       <c r="BY3" s="96" t="n"/>
     </row>
-    <row r="4" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="4">
       <c r="A4" s="95" t="n"/>
       <c r="B4" s="138" t="n"/>
       <c r="C4" s="138" t="n"/>
@@ -12021,7 +12011,7 @@
       <c r="BX4" s="138" t="n"/>
       <c r="BY4" s="96" t="n"/>
     </row>
-    <row r="5" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="5">
       <c r="A5" s="99" t="n"/>
       <c r="AW5" s="139" t="n"/>
       <c r="AX5" s="139" t="n"/>
@@ -12039,7 +12029,7 @@
       <c r="BJ5" s="139" t="n"/>
       <c r="BY5" s="97" t="n"/>
     </row>
-    <row r="6" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="6">
       <c r="A6" s="99" t="n"/>
       <c r="AW6" s="139" t="n"/>
       <c r="AX6" s="139" t="n"/>
@@ -12057,7 +12047,7 @@
       <c r="BJ6" s="139" t="n"/>
       <c r="BY6" s="97" t="n"/>
     </row>
-    <row r="7" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="7">
       <c r="A7" s="99" t="n"/>
       <c r="V7" s="139" t="n"/>
       <c r="W7" s="139" t="n"/>
@@ -12091,7 +12081,7 @@
       <c r="BJ7" s="141" t="n"/>
       <c r="BY7" s="97" t="n"/>
     </row>
-    <row r="8" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="8">
       <c r="A8" s="99" t="n"/>
       <c r="V8" s="139" t="n"/>
       <c r="W8" s="139" t="n"/>
@@ -12125,7 +12115,7 @@
       <c r="BJ8" s="141" t="n"/>
       <c r="BY8" s="97" t="n"/>
     </row>
-    <row r="9" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="9">
       <c r="A9" s="99" t="n"/>
       <c r="V9" s="141" t="n"/>
       <c r="W9" s="141" t="n"/>
@@ -12145,7 +12135,7 @@
       <c r="AK9" s="141" t="n"/>
       <c r="BY9" s="97" t="n"/>
     </row>
-    <row r="10" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="10">
       <c r="A10" s="99" t="n"/>
       <c r="V10" s="141" t="n"/>
       <c r="W10" s="141" t="n"/>
@@ -12165,7 +12155,7 @@
       <c r="AK10" s="141" t="n"/>
       <c r="BY10" s="97" t="n"/>
     </row>
-    <row r="11" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="11">
       <c r="A11" s="99" t="n"/>
       <c r="V11" s="141" t="n"/>
       <c r="W11" s="141" t="n"/>
@@ -12185,19 +12175,19 @@
       <c r="AK11" s="141" t="n"/>
       <c r="BY11" s="97" t="n"/>
     </row>
-    <row r="12" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="12">
       <c r="A12" s="99" t="n"/>
       <c r="BY12" s="97" t="n"/>
     </row>
-    <row r="13" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="13">
       <c r="A13" s="99" t="n"/>
       <c r="BY13" s="97" t="n"/>
     </row>
-    <row r="14" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="14">
       <c r="A14" s="99" t="n"/>
       <c r="BY14" s="97" t="n"/>
     </row>
-    <row r="15" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="15">
       <c r="A15" s="99" t="n"/>
       <c r="BY15" s="97" t="n"/>
       <c r="CP15" s="115" t="n"/>
@@ -12220,7 +12210,7 @@
       <c r="DG15" s="115" t="n"/>
       <c r="DH15" s="115" t="n"/>
     </row>
-    <row r="16" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="16">
       <c r="A16" s="99" t="n"/>
       <c r="BY16" s="97" t="n"/>
       <c r="CP16" s="115" t="n"/>
@@ -12243,7 +12233,7 @@
       <c r="DG16" s="115" t="n"/>
       <c r="DH16" s="115" t="n"/>
     </row>
-    <row r="17" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="17">
       <c r="A17" s="99" t="n"/>
       <c r="BY17" s="97" t="n"/>
       <c r="CP17" s="115" t="n"/>
@@ -12266,7 +12256,7 @@
       <c r="DG17" s="115" t="n"/>
       <c r="DH17" s="115" t="n"/>
     </row>
-    <row r="18" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="18">
       <c r="A18" s="99" t="n"/>
       <c r="BY18" s="97" t="n"/>
       <c r="CP18" s="115" t="n"/>
@@ -12289,7 +12279,7 @@
       <c r="DG18" s="115" t="n"/>
       <c r="DH18" s="115" t="n"/>
     </row>
-    <row r="19" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="19">
       <c r="A19" s="99" t="n"/>
       <c r="BY19" s="97" t="n"/>
       <c r="CP19" s="115" t="n"/>
@@ -12312,7 +12302,7 @@
       <c r="DG19" s="115" t="n"/>
       <c r="DH19" s="115" t="n"/>
     </row>
-    <row r="20" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="20">
       <c r="A20" s="99" t="n"/>
       <c r="BY20" s="97" t="n"/>
       <c r="CP20" s="115" t="n"/>
@@ -12335,7 +12325,7 @@
       <c r="DG20" s="115" t="n"/>
       <c r="DH20" s="115" t="n"/>
     </row>
-    <row r="21" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="21">
       <c r="A21" s="99" t="n"/>
       <c r="BY21" s="97" t="n"/>
       <c r="CP21" s="115" t="n"/>
@@ -12358,7 +12348,7 @@
       <c r="DG21" s="115" t="n"/>
       <c r="DH21" s="115" t="n"/>
     </row>
-    <row r="22" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="22">
       <c r="A22" s="99" t="n"/>
       <c r="BY22" s="97" t="n"/>
       <c r="CP22" s="115" t="n"/>
@@ -12381,7 +12371,7 @@
       <c r="DG22" s="115" t="n"/>
       <c r="DH22" s="115" t="n"/>
     </row>
-    <row r="23" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="23">
       <c r="A23" s="99" t="n"/>
       <c r="AL23" s="139" t="n"/>
       <c r="AM23" s="139" t="n"/>
@@ -12414,7 +12404,7 @@
       <c r="DG23" s="115" t="n"/>
       <c r="DH23" s="115" t="n"/>
     </row>
-    <row r="24" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="24">
       <c r="A24" s="99" t="n"/>
       <c r="J24" s="139" t="n"/>
       <c r="K24" s="139" t="n"/>
@@ -12442,7 +12432,7 @@
       <c r="AU24" s="139" t="n"/>
       <c r="BY24" s="97" t="n"/>
     </row>
-    <row r="25" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="25">
       <c r="A25" s="99" t="n"/>
       <c r="J25" s="139" t="n"/>
       <c r="K25" s="139" t="n"/>
@@ -12470,7 +12460,7 @@
       <c r="AU25" s="141" t="n"/>
       <c r="BY25" s="97" t="n"/>
     </row>
-    <row r="26" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="26">
       <c r="A26" s="99" t="n"/>
       <c r="BC26" s="139" t="n"/>
       <c r="BD26" s="139" t="n"/>
@@ -12488,7 +12478,7 @@
       <c r="BP26" s="139" t="n"/>
       <c r="BY26" s="97" t="n"/>
     </row>
-    <row r="27" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="27">
       <c r="A27" s="99" t="n"/>
       <c r="B27" s="115" t="n"/>
       <c r="C27" s="115" t="n"/>
@@ -12530,7 +12520,7 @@
       <c r="BP27" s="139" t="n"/>
       <c r="BY27" s="97" t="n"/>
     </row>
-    <row r="28" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="28">
       <c r="A28" s="99" t="n"/>
       <c r="B28" s="115" t="n"/>
       <c r="C28" s="115" t="n"/>
@@ -12572,7 +12562,7 @@
       <c r="BP28" s="139" t="n"/>
       <c r="BY28" s="97" t="n"/>
     </row>
-    <row r="29" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="29">
       <c r="A29" s="99" t="n"/>
       <c r="B29" s="115" t="n"/>
       <c r="C29" s="115" t="n"/>
@@ -12614,7 +12604,7 @@
       <c r="BP29" s="139" t="n"/>
       <c r="BY29" s="97" t="n"/>
     </row>
-    <row r="30" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="30">
       <c r="A30" s="99" t="n"/>
       <c r="B30" s="115" t="n"/>
       <c r="C30" s="115" t="n"/>
@@ -12656,7 +12646,7 @@
       <c r="BP30" s="141" t="n"/>
       <c r="BY30" s="97" t="n"/>
     </row>
-    <row r="31" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="31">
       <c r="A31" s="99" t="n"/>
       <c r="B31" s="115" t="n"/>
       <c r="C31" s="115" t="n"/>
@@ -12698,7 +12688,7 @@
       <c r="BP31" s="141" t="n"/>
       <c r="BY31" s="97" t="n"/>
     </row>
-    <row r="32" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="32">
       <c r="A32" s="99" t="n"/>
       <c r="B32" s="115" t="n"/>
       <c r="C32" s="115" t="n"/>
@@ -12726,7 +12716,7 @@
       <c r="Y32" s="142" t="n"/>
       <c r="BY32" s="97" t="n"/>
     </row>
-    <row r="33" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="33">
       <c r="A33" s="99" t="n"/>
       <c r="B33" s="115" t="n"/>
       <c r="C33" s="115" t="n"/>
@@ -12787,7 +12777,7 @@
       <c r="BS33" s="144" t="n"/>
       <c r="BY33" s="97" t="n"/>
     </row>
-    <row r="34" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="34">
       <c r="A34" s="99" t="n"/>
       <c r="B34" s="115" t="n"/>
       <c r="C34" s="115" t="n"/>
@@ -12848,7 +12838,7 @@
       <c r="BS34" s="144" t="n"/>
       <c r="BY34" s="97" t="n"/>
     </row>
-    <row r="35" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="35">
       <c r="A35" s="99" t="n"/>
       <c r="B35" s="115" t="n"/>
       <c r="C35" s="115" t="n"/>
@@ -12875,7 +12865,7 @@
       <c r="X35" s="115" t="n"/>
       <c r="BY35" s="97" t="n"/>
     </row>
-    <row r="36" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="36">
       <c r="A36" s="99" t="n"/>
       <c r="B36" s="115" t="n"/>
       <c r="C36" s="115" t="n"/>
@@ -12902,7 +12892,7 @@
       <c r="X36" s="115" t="n"/>
       <c r="BY36" s="97" t="n"/>
     </row>
-    <row r="37" ht="12" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="12" r="37" thickBot="1">
       <c r="A37" s="100" t="n"/>
       <c r="B37" s="101" t="n"/>
       <c r="C37" s="101" t="n"/>
@@ -12981,7 +12971,7 @@
       <c r="BX37" s="101" t="n"/>
       <c r="BY37" s="102" t="n"/>
     </row>
-    <row r="38" ht="12" customHeight="1" thickTop="1">
+    <row customHeight="1" ht="12" r="38" thickTop="1">
       <c r="A38" s="223" t="inlineStr">
         <is>
           <t>Survey No</t>
@@ -13068,7 +13058,7 @@
       <c r="BX38" s="103" t="n"/>
       <c r="BY38" s="105" t="n"/>
     </row>
-    <row r="39" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="39">
       <c r="A39" s="217" t="inlineStr">
         <is>
           <t>Date</t>
@@ -13127,7 +13117,7 @@
       <c r="BX39" s="104" t="n"/>
       <c r="BY39" s="106" t="n"/>
     </row>
-    <row r="40" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="40">
       <c r="A40" s="217" t="inlineStr">
         <is>
           <t>Survey Tech</t>
@@ -13188,7 +13178,7 @@
       <c r="BX40" s="104" t="n"/>
       <c r="BY40" s="106" t="n"/>
     </row>
-    <row r="41" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="41">
       <c r="A41" s="217" t="inlineStr">
         <is>
           <t>Count Room Tech</t>
@@ -13249,7 +13239,7 @@
       <c r="BX41" s="104" t="n"/>
       <c r="BY41" s="106" t="n"/>
     </row>
-    <row r="42" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="42">
       <c r="A42" s="217" t="inlineStr">
         <is>
           <t>Date Counted</t>
@@ -13308,7 +13298,7 @@
       <c r="BX42" s="109" t="n"/>
       <c r="BY42" s="106" t="n"/>
     </row>
-    <row r="43" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="43">
       <c r="A43" s="217" t="inlineStr">
         <is>
           <t>Survey Type</t>
@@ -13369,7 +13359,7 @@
       <c r="BX43" s="109" t="n"/>
       <c r="BY43" s="106" t="n"/>
     </row>
-    <row r="44" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="44">
       <c r="A44" s="217" t="inlineStr">
         <is>
           <t>Level of Posting</t>
@@ -13430,7 +13420,7 @@
       <c r="BX44" s="104" t="n"/>
       <c r="BY44" s="106" t="n"/>
     </row>
-    <row r="45" ht="12" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="12" r="45" thickBot="1">
       <c r="A45" s="219" t="inlineStr">
         <is>
           <t>Comments</t>
@@ -13513,15 +13503,15 @@
       <c r="BX45" s="113" t="n"/>
       <c r="BY45" s="114" t="n"/>
     </row>
-    <row r="46" ht="12" customHeight="1" thickTop="1"/>
-    <row r="47" ht="13.2" customHeight="1"/>
-    <row r="48" ht="13.2" customHeight="1"/>
-    <row r="49" ht="13.2" customHeight="1"/>
-    <row r="51" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="46" thickTop="1"/>
+    <row customHeight="1" ht="13.2" r="47"/>
+    <row customHeight="1" ht="13.2" r="48"/>
+    <row customHeight="1" ht="13.2" r="49"/>
+    <row customHeight="1" ht="12" r="51">
       <c r="A51" s="116" t="n"/>
       <c r="B51" s="115" t="n"/>
     </row>
-    <row r="52" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="52">
       <c r="A52" s="116" t="n"/>
       <c r="B52" s="115" t="n"/>
     </row>
@@ -13546,8 +13536,8 @@
     <mergeCell ref="K43:Y43"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.375" footer="0.1"/>
-  <pageSetup orientation="landscape" fitToHeight="0"/>
+  <pageMargins bottom="0.25" footer="0.1" header="0.375" left="0.25" right="0.25" top="0.25"/>
+  <pageSetup fitToHeight="0" orientation="landscape"/>
 </worksheet>
 </file>
 
@@ -13559,17 +13549,17 @@
   </sheetPr>
   <dimension ref="A1:DH52"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
       <selection activeCell="AU40" sqref="AU40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="1.6640625" defaultRowHeight="12" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="1.6640625" defaultRowHeight="12"/>
   <cols>
-    <col width="1.6640625" customWidth="1" style="140" min="1" max="1"/>
-    <col width="1.6640625" customWidth="1" style="140" min="2" max="16384"/>
+    <col customWidth="1" max="1" min="1" style="140" width="1.6640625"/>
+    <col customWidth="1" max="16384" min="2" style="140" width="1.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="38.25" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="38.25" r="1" thickBot="1">
       <c r="A1" s="222" t="n"/>
       <c r="B1" s="203" t="n"/>
       <c r="C1" s="203" t="n"/>
@@ -13648,7 +13638,7 @@
       <c r="BX1" s="203" t="n"/>
       <c r="BY1" s="203" t="n"/>
     </row>
-    <row r="2" ht="12" customHeight="1" thickTop="1">
+    <row customHeight="1" ht="12" r="2" thickTop="1">
       <c r="A2" s="92" t="n"/>
       <c r="B2" s="93" t="n"/>
       <c r="C2" s="93" t="n"/>
@@ -13727,7 +13717,7 @@
       <c r="BX2" s="93" t="n"/>
       <c r="BY2" s="94" t="n"/>
     </row>
-    <row r="3" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="3">
       <c r="A3" s="95" t="n"/>
       <c r="B3" s="137" t="n"/>
       <c r="C3" s="138" t="n"/>
@@ -13806,7 +13796,7 @@
       <c r="BX3" s="138" t="n"/>
       <c r="BY3" s="96" t="n"/>
     </row>
-    <row r="4" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="4">
       <c r="A4" s="95" t="n"/>
       <c r="B4" s="138" t="n"/>
       <c r="C4" s="138" t="n"/>
@@ -13885,7 +13875,7 @@
       <c r="BX4" s="138" t="n"/>
       <c r="BY4" s="96" t="n"/>
     </row>
-    <row r="5" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="5">
       <c r="A5" s="99" t="n"/>
       <c r="AW5" s="139" t="n"/>
       <c r="AX5" s="139" t="n"/>
@@ -13903,7 +13893,7 @@
       <c r="BJ5" s="139" t="n"/>
       <c r="BY5" s="97" t="n"/>
     </row>
-    <row r="6" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="6">
       <c r="A6" s="99" t="n"/>
       <c r="AW6" s="139" t="n"/>
       <c r="AX6" s="139" t="n"/>
@@ -13921,7 +13911,7 @@
       <c r="BJ6" s="139" t="n"/>
       <c r="BY6" s="97" t="n"/>
     </row>
-    <row r="7" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="7">
       <c r="A7" s="99" t="n"/>
       <c r="V7" s="139" t="n"/>
       <c r="W7" s="139" t="n"/>
@@ -13955,7 +13945,7 @@
       <c r="BJ7" s="141" t="n"/>
       <c r="BY7" s="97" t="n"/>
     </row>
-    <row r="8" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="8">
       <c r="A8" s="99" t="n"/>
       <c r="V8" s="139" t="n"/>
       <c r="W8" s="139" t="n"/>
@@ -13989,7 +13979,7 @@
       <c r="BJ8" s="141" t="n"/>
       <c r="BY8" s="97" t="n"/>
     </row>
-    <row r="9" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="9">
       <c r="A9" s="99" t="n"/>
       <c r="V9" s="141" t="n"/>
       <c r="W9" s="141" t="n"/>
@@ -14009,7 +13999,7 @@
       <c r="AK9" s="141" t="n"/>
       <c r="BY9" s="97" t="n"/>
     </row>
-    <row r="10" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="10">
       <c r="A10" s="99" t="n"/>
       <c r="V10" s="141" t="n"/>
       <c r="W10" s="141" t="n"/>
@@ -14029,7 +14019,7 @@
       <c r="AK10" s="141" t="n"/>
       <c r="BY10" s="97" t="n"/>
     </row>
-    <row r="11" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="11">
       <c r="A11" s="99" t="n"/>
       <c r="V11" s="141" t="n"/>
       <c r="W11" s="141" t="n"/>
@@ -14049,19 +14039,19 @@
       <c r="AK11" s="141" t="n"/>
       <c r="BY11" s="97" t="n"/>
     </row>
-    <row r="12" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="12">
       <c r="A12" s="99" t="n"/>
       <c r="BY12" s="97" t="n"/>
     </row>
-    <row r="13" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="13">
       <c r="A13" s="99" t="n"/>
       <c r="BY13" s="97" t="n"/>
     </row>
-    <row r="14" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="14">
       <c r="A14" s="99" t="n"/>
       <c r="BY14" s="97" t="n"/>
     </row>
-    <row r="15" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="15">
       <c r="A15" s="99" t="n"/>
       <c r="BY15" s="97" t="n"/>
       <c r="CP15" s="115" t="n"/>
@@ -14084,7 +14074,7 @@
       <c r="DG15" s="115" t="n"/>
       <c r="DH15" s="115" t="n"/>
     </row>
-    <row r="16" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="16">
       <c r="A16" s="99" t="n"/>
       <c r="BY16" s="97" t="n"/>
       <c r="CP16" s="115" t="n"/>
@@ -14107,7 +14097,7 @@
       <c r="DG16" s="115" t="n"/>
       <c r="DH16" s="115" t="n"/>
     </row>
-    <row r="17" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="17">
       <c r="A17" s="99" t="n"/>
       <c r="BY17" s="97" t="n"/>
       <c r="CP17" s="115" t="n"/>
@@ -14130,7 +14120,7 @@
       <c r="DG17" s="115" t="n"/>
       <c r="DH17" s="115" t="n"/>
     </row>
-    <row r="18" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="18">
       <c r="A18" s="99" t="n"/>
       <c r="BY18" s="97" t="n"/>
       <c r="CP18" s="115" t="n"/>
@@ -14153,7 +14143,7 @@
       <c r="DG18" s="115" t="n"/>
       <c r="DH18" s="115" t="n"/>
     </row>
-    <row r="19" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="19">
       <c r="A19" s="99" t="n"/>
       <c r="BY19" s="97" t="n"/>
       <c r="CP19" s="115" t="n"/>
@@ -14176,7 +14166,7 @@
       <c r="DG19" s="115" t="n"/>
       <c r="DH19" s="115" t="n"/>
     </row>
-    <row r="20" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="20">
       <c r="A20" s="99" t="n"/>
       <c r="BY20" s="97" t="n"/>
       <c r="CP20" s="115" t="n"/>
@@ -14199,7 +14189,7 @@
       <c r="DG20" s="115" t="n"/>
       <c r="DH20" s="115" t="n"/>
     </row>
-    <row r="21" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="21">
       <c r="A21" s="99" t="n"/>
       <c r="BY21" s="97" t="n"/>
       <c r="CP21" s="115" t="n"/>
@@ -14222,7 +14212,7 @@
       <c r="DG21" s="115" t="n"/>
       <c r="DH21" s="115" t="n"/>
     </row>
-    <row r="22" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="22">
       <c r="A22" s="99" t="n"/>
       <c r="BY22" s="97" t="n"/>
       <c r="CP22" s="115" t="n"/>
@@ -14245,7 +14235,7 @@
       <c r="DG22" s="115" t="n"/>
       <c r="DH22" s="115" t="n"/>
     </row>
-    <row r="23" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="23">
       <c r="A23" s="99" t="n"/>
       <c r="AL23" s="139" t="n"/>
       <c r="AM23" s="139" t="n"/>
@@ -14278,7 +14268,7 @@
       <c r="DG23" s="115" t="n"/>
       <c r="DH23" s="115" t="n"/>
     </row>
-    <row r="24" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="24">
       <c r="A24" s="99" t="n"/>
       <c r="J24" s="139" t="n"/>
       <c r="K24" s="139" t="n"/>
@@ -14306,7 +14296,7 @@
       <c r="AU24" s="139" t="n"/>
       <c r="BY24" s="97" t="n"/>
     </row>
-    <row r="25" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="25">
       <c r="A25" s="99" t="n"/>
       <c r="J25" s="139" t="n"/>
       <c r="K25" s="139" t="n"/>
@@ -14334,7 +14324,7 @@
       <c r="AU25" s="141" t="n"/>
       <c r="BY25" s="97" t="n"/>
     </row>
-    <row r="26" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="26">
       <c r="A26" s="99" t="n"/>
       <c r="BC26" s="139" t="n"/>
       <c r="BD26" s="139" t="n"/>
@@ -14352,7 +14342,7 @@
       <c r="BP26" s="139" t="n"/>
       <c r="BY26" s="97" t="n"/>
     </row>
-    <row r="27" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="27">
       <c r="A27" s="99" t="n"/>
       <c r="B27" s="115" t="n"/>
       <c r="C27" s="115" t="n"/>
@@ -14394,7 +14384,7 @@
       <c r="BP27" s="139" t="n"/>
       <c r="BY27" s="97" t="n"/>
     </row>
-    <row r="28" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="28">
       <c r="A28" s="99" t="n"/>
       <c r="B28" s="115" t="n"/>
       <c r="C28" s="115" t="n"/>
@@ -14436,7 +14426,7 @@
       <c r="BP28" s="139" t="n"/>
       <c r="BY28" s="97" t="n"/>
     </row>
-    <row r="29" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="29">
       <c r="A29" s="99" t="n"/>
       <c r="B29" s="115" t="n"/>
       <c r="C29" s="115" t="n"/>
@@ -14478,7 +14468,7 @@
       <c r="BP29" s="139" t="n"/>
       <c r="BY29" s="97" t="n"/>
     </row>
-    <row r="30" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="30">
       <c r="A30" s="99" t="n"/>
       <c r="B30" s="115" t="n"/>
       <c r="C30" s="115" t="n"/>
@@ -14520,7 +14510,7 @@
       <c r="BP30" s="141" t="n"/>
       <c r="BY30" s="97" t="n"/>
     </row>
-    <row r="31" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="31">
       <c r="A31" s="99" t="n"/>
       <c r="B31" s="115" t="n"/>
       <c r="C31" s="115" t="n"/>
@@ -14562,7 +14552,7 @@
       <c r="BP31" s="141" t="n"/>
       <c r="BY31" s="97" t="n"/>
     </row>
-    <row r="32" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="32">
       <c r="A32" s="99" t="n"/>
       <c r="B32" s="115" t="n"/>
       <c r="C32" s="115" t="n"/>
@@ -14590,7 +14580,7 @@
       <c r="Y32" s="142" t="n"/>
       <c r="BY32" s="97" t="n"/>
     </row>
-    <row r="33" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="33">
       <c r="A33" s="99" t="n"/>
       <c r="B33" s="115" t="n"/>
       <c r="C33" s="115" t="n"/>
@@ -14651,7 +14641,7 @@
       <c r="BS33" s="144" t="n"/>
       <c r="BY33" s="97" t="n"/>
     </row>
-    <row r="34" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="34">
       <c r="A34" s="99" t="n"/>
       <c r="B34" s="115" t="n"/>
       <c r="C34" s="115" t="n"/>
@@ -14712,7 +14702,7 @@
       <c r="BS34" s="144" t="n"/>
       <c r="BY34" s="97" t="n"/>
     </row>
-    <row r="35" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="35">
       <c r="A35" s="99" t="n"/>
       <c r="B35" s="115" t="n"/>
       <c r="C35" s="115" t="n"/>
@@ -14739,7 +14729,7 @@
       <c r="X35" s="115" t="n"/>
       <c r="BY35" s="97" t="n"/>
     </row>
-    <row r="36" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="36">
       <c r="A36" s="99" t="n"/>
       <c r="B36" s="115" t="n"/>
       <c r="C36" s="115" t="n"/>
@@ -14766,7 +14756,7 @@
       <c r="X36" s="115" t="n"/>
       <c r="BY36" s="97" t="n"/>
     </row>
-    <row r="37" ht="12" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="12" r="37" thickBot="1">
       <c r="A37" s="100" t="n"/>
       <c r="B37" s="101" t="n"/>
       <c r="C37" s="101" t="n"/>
@@ -14845,7 +14835,7 @@
       <c r="BX37" s="101" t="n"/>
       <c r="BY37" s="102" t="n"/>
     </row>
-    <row r="38" ht="12" customHeight="1" thickTop="1">
+    <row customHeight="1" ht="12" r="38" thickTop="1">
       <c r="A38" s="223" t="inlineStr">
         <is>
           <t>Survey No</t>
@@ -14932,7 +14922,7 @@
       <c r="BX38" s="103" t="n"/>
       <c r="BY38" s="105" t="n"/>
     </row>
-    <row r="39" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="39">
       <c r="A39" s="217" t="inlineStr">
         <is>
           <t>Date</t>
@@ -14991,7 +14981,7 @@
       <c r="BX39" s="104" t="n"/>
       <c r="BY39" s="106" t="n"/>
     </row>
-    <row r="40" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="40">
       <c r="A40" s="217" t="inlineStr">
         <is>
           <t>Survey Tech</t>
@@ -15052,7 +15042,7 @@
       <c r="BX40" s="104" t="n"/>
       <c r="BY40" s="106" t="n"/>
     </row>
-    <row r="41" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="41">
       <c r="A41" s="217" t="inlineStr">
         <is>
           <t>Count Room Tech</t>
@@ -15113,7 +15103,7 @@
       <c r="BX41" s="104" t="n"/>
       <c r="BY41" s="106" t="n"/>
     </row>
-    <row r="42" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="42">
       <c r="A42" s="217" t="inlineStr">
         <is>
           <t>Date Counted</t>
@@ -15172,7 +15162,7 @@
       <c r="BX42" s="109" t="n"/>
       <c r="BY42" s="106" t="n"/>
     </row>
-    <row r="43" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="43">
       <c r="A43" s="217" t="inlineStr">
         <is>
           <t>Survey Type</t>
@@ -15233,7 +15223,7 @@
       <c r="BX43" s="109" t="n"/>
       <c r="BY43" s="106" t="n"/>
     </row>
-    <row r="44" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="44">
       <c r="A44" s="217" t="inlineStr">
         <is>
           <t>Level of Posting</t>
@@ -15294,7 +15284,7 @@
       <c r="BX44" s="104" t="n"/>
       <c r="BY44" s="106" t="n"/>
     </row>
-    <row r="45" ht="12" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="12" r="45" thickBot="1">
       <c r="A45" s="219" t="inlineStr">
         <is>
           <t>Comments</t>
@@ -15377,15 +15367,15 @@
       <c r="BX45" s="113" t="n"/>
       <c r="BY45" s="114" t="n"/>
     </row>
-    <row r="46" ht="12" customHeight="1" thickTop="1"/>
-    <row r="47" ht="13.2" customHeight="1"/>
-    <row r="48" ht="13.2" customHeight="1"/>
-    <row r="49" ht="13.2" customHeight="1"/>
-    <row r="51" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="46" thickTop="1"/>
+    <row customHeight="1" ht="13.2" r="47"/>
+    <row customHeight="1" ht="13.2" r="48"/>
+    <row customHeight="1" ht="13.2" r="49"/>
+    <row customHeight="1" ht="12" r="51">
       <c r="A51" s="116" t="n"/>
       <c r="B51" s="115" t="n"/>
     </row>
-    <row r="52" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="52">
       <c r="A52" s="116" t="n"/>
       <c r="B52" s="115" t="n"/>
     </row>
@@ -15410,7 +15400,7 @@
     <mergeCell ref="K43:Y43"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.375" footer="0.1"/>
-  <pageSetup orientation="landscape" fitToHeight="0"/>
+  <pageMargins bottom="0.25" footer="0.1" header="0.375" left="0.25" right="0.25" top="0.25"/>
+  <pageSetup fitToHeight="0" orientation="landscape"/>
 </worksheet>
 </file>